--- a/qa/01.测试用例/扭蛋系统/扭蛋系统测试用例.xlsx
+++ b/qa/01.测试用例/扭蛋系统/扭蛋系统测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" tabRatio="711"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" tabRatio="711" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="17" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="461">
   <si>
     <t>目录与修改历史</t>
   </si>
@@ -374,10 +374,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>显示为“普通召唤”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>查看底图</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -560,10 +556,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>显示为“冷却时间XX：xx：xx”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>查看次数显示</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -692,14 +684,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>按钮样式变为金币召唤样式，显示倒计时</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮样式变为金币召唤样式，显示次数用完提示</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>按钮样式不变</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -724,10 +708,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>金币=0.9*单次量*10</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>点击十连抽按钮</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -770,9 +750,6 @@
     <t>无免费次数-钻石足够</t>
   </si>
   <si>
-    <t>按钮样式变为钻石召唤样式，显示倒计时</t>
-  </si>
-  <si>
     <t>查看召唤后钻石消耗</t>
   </si>
   <si>
@@ -791,14 +768,6 @@
     <t>扣除十连召唤钻石，数据库记录正确</t>
   </si>
   <si>
-    <t>显示为“XX：xx：xx后免费”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不现实提示文案</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>倒计时从Y小时开始以秒为单位减少</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -886,9 +855,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>出现在圆盘周围的伴随指针摇摆和脸变化的特效效果</t>
-  </si>
-  <si>
     <t>查看界面UI</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -939,10 +905,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>宠物rarity为2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物rarity为0,1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -983,10 +945,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>道具grade为1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>基本</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1031,10 +989,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>右下角显示【跳过】按钮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>点击【跳过】按钮</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1297,13 +1251,6 @@
   <si>
     <t>不响应点击</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看宠物icon特效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物icon外存在一个特效</t>
   </si>
   <si>
     <t>基本</t>
@@ -1406,44 +1353,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>单抽奖励规则-奖励库确定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看奖励库选择逻辑结果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据每个档位中三个奖励库权重确定奖励库</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>库1权重50，库2权重50，库3权重100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>多次抽取查看库1选中几率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>多次抽取查看库2选中几率</t>
-  </si>
-  <si>
-    <t>多次抽取查看库3选中几率</t>
-  </si>
-  <si>
-    <t>25%选中库1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>25%选中库2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50%选中库3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>十连抽奖励规则</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1552,16 +1461,333 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>奖励根据十连抽奖励规则确定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励根据单抽奖励规则确定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>奖励从伪奖励库中读取，获得奖励与配置一致</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容-有免费次数且可用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容-有免费次数且不可用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮样式变为显示金币样式，显示倒计时</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮样式变为显示金币样式，显示次数用完提示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮样式变为显示钻石样式，显示倒计时</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具grade为1,2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>无确定按钮，停留2s进行下一次召唤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新后查看免费次数倒计时</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新前未出现倒计时</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新前倒计时存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新后无倒计时显示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新后倒计时消失</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2049</t>
+  </si>
+  <si>
+    <t>显示为“金币召唤”</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2051</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2052</t>
+  </si>
+  <si>
+    <t>BG-2054</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2055</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2056</t>
+  </si>
+  <si>
+    <t>显示为“冷却时间XX：xx：xx”</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2057</t>
+  </si>
+  <si>
+    <t>BG-2058</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币=0.9*单次量*10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2059</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2060</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2062</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示为“XX：xx：xx后免费”</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2063</t>
+  </si>
+  <si>
+    <t>不显示提示文案</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2064</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出钻石充值二级确认框</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2065</t>
+  </si>
+  <si>
+    <t>BG-2067</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右上角显示【跳过】按钮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2068</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2069</t>
+  </si>
+  <si>
+    <t>BG-2070</t>
+  </si>
+  <si>
+    <t>BG-2072</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2073</t>
+  </si>
+  <si>
+    <t>BG-2074</t>
+  </si>
+  <si>
+    <t>BG-2075</t>
+  </si>
+  <si>
+    <t>查看icon特效</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸1对应的获得物品</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸2对应的获得物品</t>
+  </si>
+  <si>
+    <t>脸3对应的获得物品</t>
+  </si>
+  <si>
+    <t>icon外存在一个特效</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon外无特效</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>statistics_lf中payDiamondCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>statistics_lf中eggDiamondxxxx</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2076</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2077</t>
+  </si>
+  <si>
+    <t>宠物rarity为2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2078</t>
   </si>
 </sst>
 </file>
@@ -2338,7 +2564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2481,6 +2707,33 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="19" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2490,29 +2743,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="19" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="138">
@@ -2655,133 +2887,7 @@
     <cellStyle name="好 2" xfId="80"/>
     <cellStyle name="检查单元格 2" xfId="26"/>
   </cellStyles>
-  <dxfs count="112">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
+  <dxfs count="98">
     <dxf>
       <font>
         <b/>
@@ -3726,51 +3832,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>599313</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>70701</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12182475" y="1028700"/>
-          <a:ext cx="3885438" cy="2537676"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>161096</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>88728</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3781,7 +3849,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3802,13 +3870,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>210915</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>647008</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3819,7 +3887,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3840,13 +3908,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>62491</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3857,7 +3925,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3884,13 +3952,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>81539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3901,7 +3969,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3935,7 +4003,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>504229</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>195006</xdr:rowOff>
+      <xdr:rowOff>182306</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3945,7 +4013,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3973,7 +4041,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>513687</xdr:colOff>
       <xdr:row>212</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3983,7 +4051,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4021,7 +4089,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4030,6 +4098,44 @@
         <a:xfrm>
           <a:off x="12239625" y="48625126"/>
           <a:ext cx="2942520" cy="1953396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>684838</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>110173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211050" y="1200150"/>
+          <a:ext cx="3942388" cy="2615248"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4330,11 +4436,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
@@ -4381,10 +4487,10 @@
     </row>
     <row r="8" spans="1:256" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="56"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -4939,7 +5045,7 @@
       <selection pane="bottomLeft" activeCell="F7" sqref="E6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="2" customWidth="1"/>
@@ -5540,12 +5646,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J241"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D239" sqref="D239"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.5" style="40" customWidth="1"/>
     <col min="2" max="2" width="7.625" style="48" customWidth="1"/>
@@ -5562,10 +5668,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="44"/>
-      <c r="C1" s="64"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="C1" s="61"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:10" s="35" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
@@ -5599,16 +5705,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="60" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:10" s="57" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="F3" s="61"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="62"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43">
@@ -5629,7 +5735,9 @@
       <c r="G4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="46" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="5" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="43"/>
@@ -5647,7 +5755,9 @@
       <c r="G5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="46"/>
+      <c r="H5" s="46" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="6" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43"/>
@@ -5660,7 +5770,9 @@
       <c r="G6" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="46"/>
+      <c r="H6" s="46" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="7" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="43"/>
@@ -5673,7 +5785,9 @@
       <c r="G7" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="46"/>
+      <c r="H7" s="46" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="8" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="43"/>
@@ -5691,7 +5805,9 @@
       <c r="G8" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="46"/>
+      <c r="H8" s="46" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="9" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43"/>
@@ -5704,7 +5820,9 @@
       <c r="G9" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="46"/>
+      <c r="H9" s="46" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="10" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="43"/>
@@ -5717,7 +5835,9 @@
       <c r="G10" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="46"/>
+      <c r="H10" s="46" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="11" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43"/>
@@ -5732,7 +5852,12 @@
       <c r="G11" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="43"/>
+      <c r="H11" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="I11" s="68" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="12" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
@@ -5745,7 +5870,12 @@
       <c r="G12" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="43"/>
+      <c r="H12" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="I12" s="68" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="13" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
@@ -5763,7 +5893,9 @@
       <c r="G13" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="43"/>
+      <c r="H13" s="43" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F14" s="34" t="s">
@@ -5772,6 +5904,9 @@
       <c r="G14" s="34" t="s">
         <v>69</v>
       </c>
+      <c r="H14" s="33" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E15" s="38" t="s">
@@ -5782,6 +5917,9 @@
       </c>
       <c r="G15" s="38" t="s">
         <v>68</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -5792,8 +5930,11 @@
       <c r="G16" s="39" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="48" t="s">
         <v>73</v>
       </c>
@@ -5812,32 +5953,44 @@
       <c r="G18" s="34" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H18" s="33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F19" s="34" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="39" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H19" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F20" s="34" t="s">
         <v>78</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F21" s="34" t="s">
         <v>79</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H21" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="48" t="s">
         <v>82</v>
       </c>
@@ -5856,16 +6009,22 @@
       <c r="G23" s="34" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H23" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F24" s="34" t="s">
         <v>85</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H24" s="33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="48" t="s">
         <v>73</v>
       </c>
@@ -5881,8 +6040,11 @@
       <c r="G26" s="34" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H26" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D27" s="48">
         <v>2</v>
       </c>
@@ -5895,32 +6057,44 @@
       <c r="G27" s="34" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H27" s="33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F28" s="34" t="s">
         <v>52</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D29" s="48">
         <v>3</v>
       </c>
       <c r="E29" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H29" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="I29" s="68" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D30" s="48">
         <v>4</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" s="34" t="s">
         <v>30</v>
@@ -5928,21 +6102,27 @@
       <c r="G30" s="34" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H30" s="33" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F31" s="34" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D32" s="48">
         <v>5</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>67</v>
@@ -5950,240 +6130,289 @@
       <c r="G32" s="34" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H32" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F33" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="40"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="F34" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="I34" s="68" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F35" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G35" s="34" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F34" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="40"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" s="48"/>
-    </row>
-    <row r="36" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H35" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="40"/>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
       <c r="D36" s="48"/>
+      <c r="E36" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="F36" s="39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H36" s="48"/>
-    </row>
-    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+      <c r="H36" s="48" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
       <c r="F37" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H37" s="48"/>
-    </row>
-    <row r="38" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+      <c r="H37" s="64" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
       <c r="D38" s="48"/>
-      <c r="H38" s="48"/>
-    </row>
-    <row r="39" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" s="64" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="40"/>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="H39" s="48"/>
+    </row>
+    <row r="40" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="40"/>
+      <c r="B40" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C40" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="48">
+        <v>1</v>
+      </c>
+      <c r="E40" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="48">
-        <v>1</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G39" s="39" t="s">
+      <c r="G40" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="H39" s="48"/>
-    </row>
-    <row r="40" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="40"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48">
-        <v>2</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="H40" s="48"/>
-    </row>
-    <row r="41" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H40" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="40"/>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
+      <c r="D41" s="48">
+        <v>2</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>92</v>
+      </c>
       <c r="F41" s="39" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="H41" s="48"/>
-    </row>
-    <row r="42" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="H41" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="40"/>
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
-      <c r="D42" s="48">
-        <v>3</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>95</v>
+      <c r="D42" s="48"/>
+      <c r="F42" s="39" t="s">
+        <v>52</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="H42" s="48"/>
-    </row>
-    <row r="43" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="H42" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="40"/>
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
       <c r="D43" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="H43" s="48"/>
-    </row>
-    <row r="44" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="H43" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="I43" s="68" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="40"/>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
+      <c r="D44" s="48">
+        <v>4</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>96</v>
+      </c>
       <c r="F44" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="H44" s="48"/>
-    </row>
-    <row r="45" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="40"/>
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
-      <c r="D45" s="48">
-        <v>5</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>99</v>
-      </c>
+      <c r="D45" s="48"/>
       <c r="F45" s="39" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="48"/>
-    </row>
-    <row r="46" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="H45" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="I45" s="68" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="40"/>
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
+      <c r="D46" s="48">
+        <v>5</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>98</v>
+      </c>
       <c r="F46" s="39" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46" s="48"/>
-    </row>
-    <row r="47" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="H46" s="48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="40"/>
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
       <c r="D47" s="48"/>
       <c r="F47" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H47" s="48"/>
-    </row>
-    <row r="48" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H47" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="40"/>
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
       <c r="D48" s="48"/>
-      <c r="E48" s="39" t="s">
-        <v>117</v>
-      </c>
       <c r="F48" s="39" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="H48" s="48"/>
+        <v>115</v>
+      </c>
+      <c r="H48" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="I48" s="68" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="49" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="40"/>
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
       <c r="D49" s="48"/>
+      <c r="E49" s="39" t="s">
+        <v>116</v>
+      </c>
       <c r="F49" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H49" s="48"/>
+        <v>110</v>
+      </c>
+      <c r="H49" s="64" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="50" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="40"/>
@@ -6191,645 +6420,772 @@
       <c r="C50" s="48"/>
       <c r="D50" s="48"/>
       <c r="F50" s="39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G50" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H50" s="48"/>
+        <v>111</v>
+      </c>
+      <c r="H50" s="64" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="51" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="40"/>
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
       <c r="D51" s="48"/>
-      <c r="H51" s="48"/>
-    </row>
-    <row r="53" spans="1:9" s="60" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A53" s="63" t="s">
+      <c r="F51" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" s="64" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="40"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="H52" s="48"/>
+    </row>
+    <row r="54" spans="1:9" s="57" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A54" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="F53" s="61"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="62"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="F54" s="58"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="59"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B55" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C55" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="48">
+        <v>1</v>
+      </c>
+      <c r="E55" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="48">
-        <v>1</v>
-      </c>
-      <c r="E54" s="34" t="s">
+      <c r="G55" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="H55" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D56" s="48">
+        <v>2</v>
+      </c>
+      <c r="E56" s="34" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D55" s="48">
-        <v>2</v>
-      </c>
-      <c r="E55" s="34" t="s">
+      <c r="F56" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G56" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F55" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G55" s="38" t="s">
+      <c r="H56" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="F57" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" s="38" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="F56" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G56" s="38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D57" s="48">
+      <c r="H57" s="33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D58" s="48">
         <v>3</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E58" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="38" t="s">
+      <c r="F58" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G57" s="38" t="s">
+      <c r="G58" s="38" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E58" s="38"/>
-      <c r="F58" s="38" t="s">
+      <c r="H58" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E59" s="38"/>
+      <c r="F59" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G58" s="38" t="s">
+      <c r="G59" s="38" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E59" s="38" t="s">
+      <c r="H59" s="33" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E60" s="38" t="s">
         <v>58</v>
-      </c>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D60" s="48">
-        <v>4</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>60</v>
       </c>
       <c r="F60" s="38"/>
       <c r="G60" s="38" t="s">
-        <v>61</v>
+        <v>128</v>
+      </c>
+      <c r="H60" s="33" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D61" s="48">
+        <v>4</v>
+      </c>
       <c r="E61" s="38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H61" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="I61" s="68" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E62" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D62" s="48">
+      <c r="H62" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="I62" s="68" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D63" s="48">
         <v>5</v>
       </c>
-      <c r="E62" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="F62" s="34" t="s">
+      <c r="E63" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="G62" s="34" t="s">
+      <c r="G63" s="34" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F63" s="34" t="s">
+      <c r="H63" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F64" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G63" s="34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="40"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48">
-        <v>6</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="F64" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="G64" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H64" s="48"/>
-    </row>
-    <row r="65" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G64" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="H64" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="40"/>
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
+      <c r="D65" s="48">
+        <v>6</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>154</v>
+      </c>
       <c r="F65" s="39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="H65" s="48"/>
-    </row>
-    <row r="66" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="H65" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="40"/>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
       <c r="D66" s="48"/>
-      <c r="H66" s="48"/>
-    </row>
-    <row r="67" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F66" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="H66" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="40"/>
-      <c r="B67" s="48" t="s">
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="H67" s="48"/>
+    </row>
+    <row r="68" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="40"/>
+      <c r="B68" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C67" s="48" t="s">
+      <c r="C68" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" s="48">
+        <v>1</v>
+      </c>
+      <c r="E68" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G68" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="D67" s="48">
-        <v>1</v>
-      </c>
-      <c r="E67" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G67" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="H67" s="48"/>
-    </row>
-    <row r="68" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="40"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48">
-        <v>2</v>
-      </c>
-      <c r="E68" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F68" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G68" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="H68" s="48"/>
-    </row>
-    <row r="69" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H68" s="48" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="40"/>
       <c r="B69" s="48"/>
       <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="34"/>
+      <c r="D69" s="48">
+        <v>2</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>130</v>
+      </c>
       <c r="F69" s="34" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="G69" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="H69" s="48"/>
-    </row>
-    <row r="70" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="H69" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="40"/>
       <c r="B70" s="48"/>
       <c r="C70" s="48"/>
-      <c r="D70" s="48">
-        <v>3</v>
-      </c>
-      <c r="E70" s="34" t="s">
-        <v>134</v>
-      </c>
+      <c r="D70" s="48"/>
+      <c r="E70" s="34"/>
       <c r="F70" s="34" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G70" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="H70" s="48"/>
-    </row>
-    <row r="71" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+      <c r="H70" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="40"/>
       <c r="B71" s="48"/>
       <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="F71" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="G71" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="H71" s="48"/>
-    </row>
-    <row r="72" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D71" s="48">
+        <v>3</v>
+      </c>
+      <c r="E71" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F71" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G71" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H71" s="64" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="40"/>
       <c r="B72" s="48"/>
       <c r="C72" s="48"/>
       <c r="D72" s="48"/>
       <c r="F72" s="39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G72" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="H72" s="48"/>
-    </row>
-    <row r="73" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H72" s="64" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="40"/>
       <c r="B73" s="48"/>
       <c r="C73" s="48"/>
       <c r="D73" s="48"/>
-      <c r="E73" s="39" t="s">
-        <v>164</v>
-      </c>
       <c r="F73" s="39" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="H73" s="48"/>
-    </row>
-    <row r="74" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="H73" s="64" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="40"/>
       <c r="B74" s="48"/>
       <c r="C74" s="48"/>
       <c r="D74" s="48"/>
+      <c r="E74" s="39" t="s">
+        <v>162</v>
+      </c>
       <c r="F74" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H74" s="48"/>
-    </row>
-    <row r="75" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+      <c r="H74" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="I74" s="68" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="40"/>
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>
       <c r="D75" s="48"/>
       <c r="F75" s="39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H75" s="48"/>
-    </row>
-    <row r="76" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+      <c r="H75" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="40"/>
       <c r="B76" s="48"/>
       <c r="C76" s="48"/>
-      <c r="D76" s="48">
+      <c r="D76" s="48"/>
+      <c r="F76" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="G76" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H76" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="40"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48">
         <v>4</v>
       </c>
-      <c r="E76" s="39" t="s">
+      <c r="E77" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G77" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="F76" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="G76" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="H76" s="48"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E77" s="39"/>
-      <c r="F77" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="G77" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H77" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="I77" s="68" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E78" s="39"/>
       <c r="F78" s="39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G78" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="H78" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E79" s="39"/>
+      <c r="F79" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="G79" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="H79" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="I79" s="68" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D80" s="48">
+        <v>5</v>
+      </c>
+      <c r="E80" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F80" s="39" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D79" s="48">
-        <v>5</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="F79" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="G79" s="39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="40"/>
-      <c r="B80" s="48"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="48"/>
-      <c r="F80" s="39" t="s">
+      <c r="G80" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="G80" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="H80" s="48"/>
-    </row>
-    <row r="81" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H80" s="64" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="40"/>
       <c r="B81" s="48"/>
       <c r="C81" s="48"/>
       <c r="D81" s="48"/>
       <c r="F81" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G81" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="G81" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="H81" s="48"/>
-    </row>
-    <row r="82" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H81" s="64" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="40"/>
       <c r="B82" s="48"/>
       <c r="C82" s="48"/>
-      <c r="D82" s="48">
-        <v>6</v>
-      </c>
-      <c r="E82" s="39" t="s">
-        <v>151</v>
+      <c r="D82" s="48"/>
+      <c r="F82" s="39" t="s">
+        <v>145</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="H82" s="48"/>
-    </row>
-    <row r="83" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="H82" s="64" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="40"/>
       <c r="B83" s="48"/>
       <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
+      <c r="D83" s="48">
+        <v>6</v>
+      </c>
       <c r="E83" s="39" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="H83" s="48"/>
-    </row>
-    <row r="84" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+      <c r="H83" s="48" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="40"/>
       <c r="B84" s="48"/>
       <c r="C84" s="48"/>
-      <c r="D84" s="48">
-        <v>7</v>
-      </c>
+      <c r="D84" s="48"/>
       <c r="E84" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="F84" s="39" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="H84" s="48"/>
-    </row>
-    <row r="85" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="H84" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="40"/>
       <c r="B85" s="48"/>
       <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
+      <c r="D85" s="48">
+        <v>7</v>
+      </c>
+      <c r="E85" s="39" t="s">
+        <v>161</v>
+      </c>
       <c r="F85" s="39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="H85" s="48"/>
-    </row>
-    <row r="86" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+      <c r="H85" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="40"/>
       <c r="B86" s="48"/>
       <c r="C86" s="48"/>
       <c r="D86" s="48"/>
       <c r="F86" s="39" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="H86" s="48"/>
-    </row>
-    <row r="87" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+      <c r="H86" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="40"/>
       <c r="B87" s="48"/>
       <c r="C87" s="48"/>
       <c r="D87" s="48"/>
       <c r="F87" s="39" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="H87" s="48"/>
-    </row>
-    <row r="88" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+      <c r="H87" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="I87" s="68" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="40"/>
       <c r="B88" s="48"/>
       <c r="C88" s="48"/>
       <c r="D88" s="48"/>
-      <c r="E88" s="39" t="s">
-        <v>173</v>
-      </c>
       <c r="F88" s="39" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="H88" s="48"/>
-    </row>
-    <row r="89" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="H88" s="48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="40"/>
       <c r="B89" s="48"/>
       <c r="C89" s="48"/>
       <c r="D89" s="48"/>
+      <c r="E89" s="39" t="s">
+        <v>171</v>
+      </c>
       <c r="F89" s="39" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="H89" s="48"/>
-    </row>
-    <row r="90" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+      <c r="H89" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="40"/>
       <c r="B90" s="48"/>
       <c r="C90" s="48"/>
       <c r="D90" s="48"/>
       <c r="F90" s="39" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="H90" s="48"/>
-    </row>
-    <row r="91" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+      <c r="H90" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="40"/>
       <c r="B91" s="48"/>
       <c r="C91" s="48"/>
       <c r="D91" s="48"/>
-      <c r="E91" s="39" t="s">
-        <v>179</v>
-      </c>
       <c r="F91" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="H91" s="48"/>
-    </row>
-    <row r="92" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+      <c r="H91" s="48" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="40"/>
       <c r="B92" s="48"/>
       <c r="C92" s="48"/>
       <c r="D92" s="48"/>
+      <c r="E92" s="39" t="s">
+        <v>175</v>
+      </c>
       <c r="F92" s="39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="H92" s="48"/>
-    </row>
-    <row r="94" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="40"/>
-      <c r="B94" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="H92" s="64" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="40"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="F93" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G93" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="H93" s="64" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="40"/>
+      <c r="B95" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C94" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="D94" s="48">
+      <c r="C95" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="D95" s="48">
         <v>1</v>
       </c>
-      <c r="E94" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="G94" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="H94" s="48"/>
-    </row>
-    <row r="95" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="40"/>
-      <c r="B95" s="48"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48">
-        <v>2</v>
-      </c>
       <c r="E95" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F95" s="39" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H95" s="48"/>
-    </row>
-    <row r="96" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+      <c r="H95" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="40"/>
       <c r="B96" s="48"/>
       <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
+      <c r="D96" s="48">
+        <v>2</v>
+      </c>
+      <c r="E96" s="39" t="s">
+        <v>130</v>
+      </c>
       <c r="F96" s="39" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="H96" s="48"/>
+        <v>68</v>
+      </c>
+      <c r="H96" s="48" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="97" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="40"/>
       <c r="B97" s="48"/>
       <c r="C97" s="48"/>
-      <c r="D97" s="48">
-        <v>3</v>
-      </c>
-      <c r="E97" s="39" t="s">
-        <v>134</v>
+      <c r="D97" s="48"/>
+      <c r="F97" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="H97" s="48"/>
+        <v>179</v>
+      </c>
+      <c r="H97" s="48" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="98" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="40"/>
       <c r="B98" s="48"/>
       <c r="C98" s="48"/>
-      <c r="D98" s="48"/>
+      <c r="D98" s="48">
+        <v>3</v>
+      </c>
       <c r="E98" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="F98" s="39" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="H98" s="48"/>
+        <v>410</v>
+      </c>
+      <c r="H98" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="I98" s="68" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="99" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="40"/>
       <c r="B99" s="48"/>
       <c r="C99" s="48"/>
       <c r="D99" s="48"/>
+      <c r="E99" s="39" t="s">
+        <v>162</v>
+      </c>
       <c r="F99" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H99" s="48"/>
+        <v>110</v>
+      </c>
+      <c r="H99" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="I99" s="68" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="100" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="40"/>
@@ -6837,43 +7193,49 @@
       <c r="C100" s="48"/>
       <c r="D100" s="48"/>
       <c r="F100" s="39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G100" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H100" s="48"/>
+        <v>111</v>
+      </c>
+      <c r="H100" s="48" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="101" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="40"/>
       <c r="B101" s="48"/>
       <c r="C101" s="48"/>
-      <c r="D101" s="48">
-        <v>4</v>
-      </c>
-      <c r="E101" s="39" t="s">
-        <v>185</v>
-      </c>
+      <c r="D101" s="48"/>
       <c r="F101" s="39" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="H101" s="48"/>
+        <v>111</v>
+      </c>
+      <c r="H101" s="48" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="102" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="40"/>
       <c r="B102" s="48"/>
       <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
+      <c r="D102" s="48">
+        <v>4</v>
+      </c>
+      <c r="E102" s="39" t="s">
+        <v>180</v>
+      </c>
       <c r="F102" s="39" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="H102" s="48"/>
+        <v>166</v>
+      </c>
+      <c r="H102" s="48" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="103" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="40"/>
@@ -6881,620 +7243,723 @@
       <c r="C103" s="48"/>
       <c r="D103" s="48"/>
       <c r="F103" s="39" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G103" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="H103" s="48"/>
+        <v>169</v>
+      </c>
+      <c r="H103" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="I103" s="68" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="104" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="40"/>
       <c r="B104" s="48"/>
       <c r="C104" s="48"/>
       <c r="D104" s="48"/>
-      <c r="E104" s="39" t="s">
-        <v>179</v>
+      <c r="F104" s="39" t="s">
+        <v>183</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="H104" s="48"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-    </row>
-    <row r="106" spans="1:9" s="60" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A106" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="H104" s="64" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="40"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="G105" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="H105" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="I105" s="68" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E106" s="39"/>
+      <c r="F106" s="39"/>
+    </row>
+    <row r="107" spans="1:9" s="57" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A107" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B106" s="59"/>
-      <c r="C106" s="59"/>
-      <c r="D106" s="59"/>
-      <c r="F106" s="61"/>
-      <c r="H106" s="59"/>
-      <c r="I106" s="62"/>
-    </row>
-    <row r="107" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="40"/>
-      <c r="B107" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C107" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D107" s="48">
-        <v>1</v>
-      </c>
-      <c r="E107" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="G107" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="H107" s="48"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="56"/>
+      <c r="F107" s="58"/>
+      <c r="H107" s="56"/>
+      <c r="I107" s="59"/>
     </row>
     <row r="108" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="40"/>
-      <c r="B108" s="48"/>
-      <c r="C108" s="48"/>
+      <c r="B108" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C108" s="48" t="s">
+        <v>39</v>
+      </c>
       <c r="D108" s="48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E108" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="F108" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G108" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="H108" s="48"/>
-    </row>
-    <row r="109" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="G108" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="H108" s="48" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="40"/>
       <c r="B109" s="48"/>
       <c r="C109" s="48"/>
-      <c r="D109" s="48"/>
+      <c r="D109" s="48">
+        <v>2</v>
+      </c>
+      <c r="E109" s="39" t="s">
+        <v>188</v>
+      </c>
       <c r="F109" s="38" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G109" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="H109" s="48"/>
-    </row>
-    <row r="110" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+      <c r="H109" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A110" s="40"/>
       <c r="B110" s="48"/>
       <c r="C110" s="48"/>
-      <c r="D110" s="48">
-        <v>3</v>
-      </c>
-      <c r="E110" s="38" t="s">
-        <v>54</v>
-      </c>
+      <c r="D110" s="48"/>
       <c r="F110" s="38" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G110" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H110" s="48"/>
+        <v>189</v>
+      </c>
+      <c r="H110" s="48" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="111" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="40"/>
       <c r="B111" s="48"/>
       <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="38"/>
+      <c r="D111" s="48">
+        <v>3</v>
+      </c>
+      <c r="E111" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="F111" s="38" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G111" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="H111" s="48"/>
+        <v>56</v>
+      </c>
+      <c r="H111" s="48" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="112" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="40"/>
       <c r="B112" s="48"/>
       <c r="C112" s="48"/>
       <c r="D112" s="48"/>
-      <c r="E112" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F112" s="38"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38" t="s">
+        <v>55</v>
+      </c>
       <c r="G112" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="H112" s="48"/>
-    </row>
-    <row r="113" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="H112" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="40"/>
       <c r="B113" s="48"/>
       <c r="C113" s="48"/>
-      <c r="D113" s="48">
-        <v>4</v>
-      </c>
+      <c r="D113" s="48"/>
       <c r="E113" s="38" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H113" s="48"/>
-    </row>
-    <row r="114" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="H113" s="48" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="40"/>
       <c r="B114" s="48"/>
       <c r="C114" s="48"/>
-      <c r="D114" s="48"/>
+      <c r="D114" s="48">
+        <v>4</v>
+      </c>
       <c r="E114" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H114" s="48"/>
-    </row>
-    <row r="115" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="H114" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="I114" s="68" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="40"/>
       <c r="B115" s="48"/>
       <c r="C115" s="48"/>
-      <c r="D115" s="48">
-        <v>5</v>
-      </c>
-      <c r="E115" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="F115" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="G115" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H115" s="48"/>
-    </row>
-    <row r="116" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D115" s="48"/>
+      <c r="E115" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F115" s="38"/>
+      <c r="G115" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H115" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="I115" s="68" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="40"/>
       <c r="B116" s="48"/>
       <c r="C116" s="48"/>
-      <c r="D116" s="48"/>
+      <c r="D116" s="48">
+        <v>5</v>
+      </c>
+      <c r="E116" s="39" t="s">
+        <v>129</v>
+      </c>
       <c r="F116" s="39" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="G116" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="H116" s="48"/>
-    </row>
-    <row r="117" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="H116" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="40"/>
       <c r="B117" s="48"/>
       <c r="C117" s="48"/>
-      <c r="D117" s="48">
-        <v>6</v>
-      </c>
-      <c r="E117" s="39" t="s">
-        <v>156</v>
-      </c>
+      <c r="D117" s="48"/>
       <c r="F117" s="39" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="G117" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H117" s="48"/>
-    </row>
-    <row r="118" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+      <c r="H117" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="40"/>
       <c r="B118" s="48"/>
       <c r="C118" s="48"/>
-      <c r="D118" s="48"/>
+      <c r="D118" s="48">
+        <v>6</v>
+      </c>
+      <c r="E118" s="39" t="s">
+        <v>154</v>
+      </c>
       <c r="F118" s="39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G118" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="H118" s="48"/>
-    </row>
-    <row r="119" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="H118" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="40"/>
       <c r="B119" s="48"/>
       <c r="C119" s="48"/>
       <c r="D119" s="48"/>
-      <c r="H119" s="48"/>
-    </row>
-    <row r="120" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F119" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G119" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="H119" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="40"/>
-      <c r="B120" s="48" t="s">
+      <c r="B120" s="48"/>
+      <c r="C120" s="48"/>
+      <c r="D120" s="48"/>
+      <c r="H120" s="48"/>
+    </row>
+    <row r="121" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="40"/>
+      <c r="B121" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C120" s="48" t="s">
+      <c r="C121" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D121" s="48">
+        <v>1</v>
+      </c>
+      <c r="E121" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G121" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="D120" s="48">
-        <v>1</v>
-      </c>
-      <c r="E120" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G120" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="H120" s="48"/>
-    </row>
-    <row r="121" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="40"/>
-      <c r="B121" s="48"/>
-      <c r="C121" s="48"/>
-      <c r="D121" s="48">
-        <v>2</v>
-      </c>
-      <c r="E121" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F121" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G121" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H121" s="48"/>
-    </row>
-    <row r="122" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H121" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="40"/>
       <c r="B122" s="48"/>
       <c r="C122" s="48"/>
-      <c r="D122" s="48"/>
+      <c r="D122" s="48">
+        <v>2</v>
+      </c>
+      <c r="E122" s="39" t="s">
+        <v>130</v>
+      </c>
       <c r="F122" s="39" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="G122" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="H122" s="48"/>
-    </row>
-    <row r="123" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="H122" s="48" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="40"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
-      <c r="D123" s="48">
-        <v>3</v>
-      </c>
-      <c r="E123" s="39" t="s">
-        <v>134</v>
-      </c>
+      <c r="D123" s="48"/>
       <c r="F123" s="39" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G123" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="H123" s="48"/>
-    </row>
-    <row r="124" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+      <c r="H123" s="48" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="40"/>
       <c r="B124" s="48"/>
       <c r="C124" s="48"/>
-      <c r="D124" s="48"/>
+      <c r="D124" s="48">
+        <v>3</v>
+      </c>
+      <c r="E124" s="39" t="s">
+        <v>133</v>
+      </c>
       <c r="F124" s="39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G124" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="H124" s="48"/>
-    </row>
-    <row r="125" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="H124" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="I124" s="68" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="40"/>
       <c r="B125" s="48"/>
       <c r="C125" s="48"/>
       <c r="D125" s="48"/>
-      <c r="E125" s="39" t="s">
-        <v>117</v>
-      </c>
       <c r="F125" s="39" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="G125" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="H125" s="48"/>
-    </row>
-    <row r="126" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+      <c r="H125" s="48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="40"/>
       <c r="B126" s="48"/>
       <c r="C126" s="48"/>
       <c r="D126" s="48"/>
+      <c r="E126" s="39" t="s">
+        <v>116</v>
+      </c>
       <c r="F126" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G126" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H126" s="48"/>
-    </row>
-    <row r="127" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+      <c r="H126" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="I126" s="68" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="40"/>
       <c r="B127" s="48"/>
       <c r="C127" s="48"/>
       <c r="D127" s="48"/>
       <c r="F127" s="39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G127" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H127" s="48"/>
-    </row>
-    <row r="128" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+      <c r="H127" s="48" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="40"/>
       <c r="B128" s="48"/>
       <c r="C128" s="48"/>
-      <c r="D128" s="48">
-        <v>4</v>
-      </c>
-      <c r="E128" s="39" t="s">
-        <v>140</v>
-      </c>
+      <c r="D128" s="48"/>
       <c r="F128" s="39" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G128" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="H128" s="48"/>
-    </row>
-    <row r="129" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+      <c r="H128" s="48" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="40"/>
       <c r="B129" s="48"/>
       <c r="C129" s="48"/>
-      <c r="D129" s="48"/>
+      <c r="D129" s="48">
+        <v>4</v>
+      </c>
+      <c r="E129" s="39" t="s">
+        <v>139</v>
+      </c>
       <c r="F129" s="39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G129" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="H129" s="48"/>
-    </row>
-    <row r="130" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+      <c r="H129" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="I129" s="68" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="40"/>
       <c r="B130" s="48"/>
       <c r="C130" s="48"/>
-      <c r="D130" s="48">
-        <v>5</v>
-      </c>
-      <c r="E130" s="39" t="s">
-        <v>151</v>
+      <c r="D130" s="48"/>
+      <c r="F130" s="39" t="s">
+        <v>135</v>
       </c>
       <c r="G130" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="H130" s="48"/>
-    </row>
-    <row r="131" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>422</v>
+      </c>
+      <c r="H130" s="48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="40"/>
       <c r="B131" s="48"/>
       <c r="C131" s="48"/>
-      <c r="D131" s="48"/>
+      <c r="D131" s="48">
+        <v>5</v>
+      </c>
       <c r="E131" s="39" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G131" s="39" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="H131" s="48"/>
     </row>
-    <row r="132" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="40"/>
       <c r="B132" s="48"/>
       <c r="C132" s="48"/>
-      <c r="D132" s="48">
-        <v>6</v>
-      </c>
+      <c r="D132" s="48"/>
       <c r="E132" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="F132" s="39" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G132" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="H132" s="48"/>
-    </row>
-    <row r="133" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="H132" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="40"/>
       <c r="B133" s="48"/>
       <c r="C133" s="48"/>
-      <c r="D133" s="48"/>
+      <c r="D133" s="48">
+        <v>6</v>
+      </c>
+      <c r="E133" s="39" t="s">
+        <v>161</v>
+      </c>
       <c r="F133" s="39" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="G133" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="H133" s="48"/>
-    </row>
-    <row r="134" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+      <c r="H133" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="40"/>
       <c r="B134" s="48"/>
       <c r="C134" s="48"/>
       <c r="D134" s="48"/>
       <c r="F134" s="39" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="G134" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="H134" s="48"/>
-    </row>
-    <row r="135" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+      <c r="H134" s="48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="40"/>
       <c r="B135" s="48"/>
       <c r="C135" s="48"/>
       <c r="D135" s="48"/>
-      <c r="E135" s="39" t="s">
-        <v>173</v>
-      </c>
       <c r="F135" s="39" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="G135" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="H135" s="48"/>
-    </row>
-    <row r="136" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="H135" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="I135" s="68" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="40"/>
       <c r="B136" s="48"/>
       <c r="C136" s="48"/>
       <c r="D136" s="48"/>
+      <c r="E136" s="39" t="s">
+        <v>171</v>
+      </c>
       <c r="F136" s="39" t="s">
-        <v>196</v>
+        <v>90</v>
       </c>
       <c r="G136" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="H136" s="48"/>
-    </row>
-    <row r="137" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+      <c r="H136" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="40"/>
       <c r="B137" s="48"/>
       <c r="C137" s="48"/>
       <c r="D137" s="48"/>
-      <c r="E137" s="39" t="s">
-        <v>198</v>
-      </c>
       <c r="F137" s="39" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="G137" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="H137" s="48"/>
-    </row>
-    <row r="138" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+      <c r="H137" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="40"/>
       <c r="B138" s="48"/>
       <c r="C138" s="48"/>
       <c r="D138" s="48"/>
+      <c r="E138" s="39" t="s">
+        <v>192</v>
+      </c>
       <c r="F138" s="39" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="G138" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="H138" s="48"/>
-    </row>
-    <row r="139" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+      <c r="H138" s="48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="40"/>
       <c r="B139" s="48"/>
       <c r="C139" s="48"/>
       <c r="D139" s="48"/>
-      <c r="H139" s="48"/>
-    </row>
-    <row r="140" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F139" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="G139" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="H139" s="48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="40"/>
-      <c r="B140" s="48" t="s">
+      <c r="B140" s="48"/>
+      <c r="C140" s="48"/>
+      <c r="D140" s="48"/>
+      <c r="H140" s="48"/>
+    </row>
+    <row r="141" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="40"/>
+      <c r="B141" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C140" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="D140" s="48">
+      <c r="C141" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="D141" s="48">
         <v>1</v>
       </c>
-      <c r="E140" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="G140" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="H140" s="48"/>
-    </row>
-    <row r="141" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="40"/>
-      <c r="B141" s="48"/>
-      <c r="C141" s="48"/>
-      <c r="D141" s="48">
-        <v>2</v>
-      </c>
       <c r="E141" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F141" s="39" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="G141" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H141" s="48"/>
-    </row>
-    <row r="142" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+      <c r="H141" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="40"/>
       <c r="B142" s="48"/>
       <c r="C142" s="48"/>
-      <c r="D142" s="48"/>
+      <c r="D142" s="48">
+        <v>2</v>
+      </c>
+      <c r="E142" s="39" t="s">
+        <v>130</v>
+      </c>
       <c r="F142" s="39" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="G142" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="H142" s="48"/>
-    </row>
-    <row r="143" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="H142" s="48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="40"/>
       <c r="B143" s="48"/>
       <c r="C143" s="48"/>
-      <c r="D143" s="48">
-        <v>3</v>
-      </c>
-      <c r="E143" s="39" t="s">
-        <v>134</v>
+      <c r="D143" s="48"/>
+      <c r="F143" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="G143" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="H143" s="48"/>
-    </row>
-    <row r="144" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+      <c r="H143" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="40"/>
       <c r="B144" s="48"/>
       <c r="C144" s="48"/>
-      <c r="D144" s="48"/>
+      <c r="D144" s="48">
+        <v>3</v>
+      </c>
       <c r="E144" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="F144" s="39" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="G144" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="H144" s="48"/>
+        <v>195</v>
+      </c>
+      <c r="H144" s="48" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="145" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="40"/>
       <c r="B145" s="48"/>
       <c r="C145" s="48"/>
       <c r="D145" s="48"/>
+      <c r="E145" s="39" t="s">
+        <v>116</v>
+      </c>
       <c r="F145" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G145" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H145" s="48"/>
+        <v>110</v>
+      </c>
+      <c r="H145" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="I145" s="68" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="146" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="40"/>
@@ -7502,108 +7967,127 @@
       <c r="C146" s="48"/>
       <c r="D146" s="48"/>
       <c r="F146" s="39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G146" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H146" s="48"/>
+        <v>111</v>
+      </c>
+      <c r="H146" s="48" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="147" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="40"/>
       <c r="B147" s="48"/>
       <c r="C147" s="48"/>
-      <c r="D147" s="48">
-        <v>4</v>
-      </c>
-      <c r="E147" s="39" t="s">
-        <v>185</v>
-      </c>
+      <c r="D147" s="48"/>
       <c r="F147" s="39" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="G147" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="H147" s="48"/>
+        <v>111</v>
+      </c>
+      <c r="H147" s="48" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="148" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="40"/>
       <c r="B148" s="48"/>
       <c r="C148" s="48"/>
-      <c r="D148" s="48"/>
+      <c r="D148" s="48">
+        <v>4</v>
+      </c>
+      <c r="E148" s="39" t="s">
+        <v>180</v>
+      </c>
       <c r="F148" s="39" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="G148" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="H148" s="48"/>
+        <v>166</v>
+      </c>
+      <c r="H148" s="48" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="149" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="40"/>
       <c r="B149" s="48"/>
       <c r="C149" s="48"/>
       <c r="D149" s="48"/>
-      <c r="E149" s="39" t="s">
-        <v>198</v>
+      <c r="F149" s="39" t="s">
+        <v>201</v>
       </c>
       <c r="G149" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="H149" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="I149" s="68" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="40"/>
+      <c r="B150" s="48"/>
+      <c r="C150" s="48"/>
+      <c r="D150" s="48"/>
+      <c r="E150" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="G150" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="H150" s="48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="57" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A152" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B152" s="56"/>
+      <c r="C152" s="56"/>
+      <c r="D152" s="56"/>
+      <c r="F152" s="58"/>
+      <c r="H152" s="56"/>
+      <c r="I152" s="59"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B153" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C153" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="D153" s="48">
+        <v>1</v>
+      </c>
+      <c r="E153" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="H149" s="48"/>
-    </row>
-    <row r="151" spans="1:9" s="60" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A151" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="B151" s="59"/>
-      <c r="C151" s="59"/>
-      <c r="D151" s="59"/>
-      <c r="F151" s="61"/>
-      <c r="H151" s="59"/>
-      <c r="I151" s="62"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B152" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C152" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="D152" s="48">
-        <v>1</v>
-      </c>
-      <c r="E152" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="G152" s="34" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="33" x14ac:dyDescent="0.35">
-      <c r="D153" s="48">
+      <c r="G153" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="H153" s="33" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="D154" s="48">
         <v>2</v>
       </c>
-      <c r="E153" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="G153" s="34" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="40"/>
-      <c r="B154" s="48"/>
-      <c r="C154" s="48"/>
-      <c r="D154" s="48"/>
-      <c r="F154" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="G154" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="H154" s="48"/>
+      <c r="E154" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G154" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H154" s="33" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="155" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="40"/>
@@ -7611,151 +8095,192 @@
       <c r="C155" s="48"/>
       <c r="D155" s="48"/>
       <c r="F155" s="39" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="G155" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="H155" s="48"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D156" s="48">
-        <v>3</v>
-      </c>
-      <c r="E156" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="G156" s="34" t="s">
-        <v>216</v>
+        <v>212</v>
+      </c>
+      <c r="H155" s="48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="40"/>
+      <c r="B156" s="48"/>
+      <c r="C156" s="48"/>
+      <c r="D156" s="48"/>
+      <c r="F156" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="G156" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H156" s="48" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D157" s="48">
+        <v>3</v>
+      </c>
+      <c r="E157" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="G157" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H157" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D158" s="48">
         <v>4</v>
       </c>
-      <c r="E157" s="34" t="s">
+      <c r="E158" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="G158" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="H158" s="33" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" s="57" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A160" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B160" s="56"/>
+      <c r="C160" s="56"/>
+      <c r="D160" s="56"/>
+      <c r="F160" s="58"/>
+      <c r="H160" s="56"/>
+      <c r="I160" s="59"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B161" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C161" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="D161" s="48">
+        <v>1</v>
+      </c>
+      <c r="E161" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="F161" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="G161" s="34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F162" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G162" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="G157" s="34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" s="60" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A159" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="B159" s="59"/>
-      <c r="C159" s="59"/>
-      <c r="D159" s="59"/>
-      <c r="F159" s="61"/>
-      <c r="H159" s="59"/>
-      <c r="I159" s="62"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B160" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C160" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="D160" s="48">
-        <v>1</v>
-      </c>
-      <c r="E160" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="F160" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="G160" s="34" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F161" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="G161" s="39" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F162" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="G162" s="39" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H162" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="I162" s="68" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E163" s="34" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G163" s="34" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+      <c r="H163" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="I163" s="68" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D164" s="48">
         <v>2</v>
       </c>
       <c r="E164" s="34" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F164" s="34" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G164" s="39" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+      <c r="H164" s="33" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F165" s="39" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G165" s="39" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+      <c r="H165" s="33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="33" x14ac:dyDescent="0.35">
       <c r="F166" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="G166" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="G166" s="34" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H166" s="33" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D167" s="48">
         <v>3</v>
       </c>
       <c r="E167" s="34" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G167" s="34" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+      <c r="H167" s="33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="40"/>
       <c r="B169" s="48" t="s">
         <v>82</v>
       </c>
       <c r="C169" s="48" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D169" s="48">
         <v>1</v>
       </c>
       <c r="E169" s="39" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G169" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="H169" s="48"/>
-    </row>
-    <row r="170" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+      <c r="H169" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="40"/>
       <c r="B170" s="48"/>
       <c r="C170" s="48"/>
@@ -7763,30 +8288,34 @@
         <v>2</v>
       </c>
       <c r="E170" s="39" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F170" s="39" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G170" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="H170" s="48"/>
-    </row>
-    <row r="171" spans="1:8" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="H170" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A171" s="40"/>
       <c r="B171" s="48"/>
       <c r="C171" s="48"/>
       <c r="D171" s="48"/>
       <c r="F171" s="39" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G171" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="H171" s="48"/>
-    </row>
-    <row r="172" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+      <c r="H171" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="40"/>
       <c r="B172" s="48"/>
       <c r="C172" s="48"/>
@@ -7794,14 +8323,16 @@
         <v>3</v>
       </c>
       <c r="E172" s="39" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="G172" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="H172" s="48"/>
-    </row>
-    <row r="173" spans="1:8" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+        <v>434</v>
+      </c>
+      <c r="H172" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A173" s="40"/>
       <c r="B173" s="48"/>
       <c r="C173" s="48"/>
@@ -7809,97 +8340,126 @@
         <v>4</v>
       </c>
       <c r="E173" s="39" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G173" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="H173" s="48"/>
-    </row>
-    <row r="174" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="H173" s="48" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="40"/>
       <c r="B174" s="48"/>
       <c r="C174" s="48"/>
       <c r="D174" s="48"/>
       <c r="E174" s="39" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G174" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="H174" s="48"/>
-    </row>
-    <row r="175" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+      <c r="H174" s="48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="40"/>
       <c r="B175" s="48"/>
       <c r="C175" s="48"/>
       <c r="D175" s="48"/>
       <c r="H175" s="48"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B176" s="48" t="s">
         <v>73</v>
       </c>
       <c r="C176" s="48" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D176" s="48">
         <v>1</v>
       </c>
       <c r="E176" s="34" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F176" s="34" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G176" s="34" t="s">
-        <v>241</v>
+        <v>232</v>
+      </c>
+      <c r="H176" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="I176" s="68" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F177" s="39" t="s">
-        <v>242</v>
+        <v>459</v>
       </c>
       <c r="G177" s="39" t="s">
-        <v>244</v>
+        <v>234</v>
+      </c>
+      <c r="H177" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="I177" s="68" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F178" s="39" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G178" s="39" t="s">
-        <v>245</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="H178" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="I178" s="68"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D179" s="48">
         <v>2</v>
       </c>
       <c r="E179" s="34" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F179" s="34" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G179" s="39" t="s">
-        <v>241</v>
+        <v>232</v>
+      </c>
+      <c r="H179" s="33" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F180" s="39" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G180" s="39" t="s">
-        <v>244</v>
+        <v>234</v>
+      </c>
+      <c r="H180" s="64" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F181" s="39" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G181" s="39" t="s">
-        <v>245</v>
+        <v>235</v>
+      </c>
+      <c r="H181" s="64" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
@@ -7907,22 +8467,28 @@
         <v>3</v>
       </c>
       <c r="E182" s="34" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F182" s="34" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G182" s="39" t="s">
-        <v>241</v>
+        <v>232</v>
+      </c>
+      <c r="H182" s="64" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D183" s="34"/>
       <c r="F183" s="39" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G183" s="39" t="s">
-        <v>244</v>
+        <v>234</v>
+      </c>
+      <c r="H183" s="64" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="184" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7931,39 +8497,44 @@
       <c r="C184" s="48"/>
       <c r="D184" s="48"/>
       <c r="F184" s="39" t="s">
-        <v>253</v>
+        <v>378</v>
       </c>
       <c r="G184" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="H184" s="48"/>
-    </row>
-    <row r="186" spans="1:9" s="60" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A186" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="H184" s="64" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" s="57" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A186" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B186" s="59"/>
-      <c r="C186" s="59"/>
-      <c r="D186" s="59"/>
-      <c r="F186" s="61"/>
-      <c r="H186" s="59"/>
-      <c r="I186" s="62"/>
+      <c r="B186" s="56"/>
+      <c r="C186" s="56"/>
+      <c r="D186" s="56"/>
+      <c r="F186" s="58"/>
+      <c r="H186" s="56"/>
+      <c r="I186" s="59"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B187" s="48" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C187" s="48" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D187" s="48">
         <v>1</v>
       </c>
       <c r="E187" s="34" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="G187" s="34" t="s">
-        <v>272</v>
+        <v>260</v>
+      </c>
+      <c r="H187" s="33" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
@@ -7971,13 +8542,16 @@
         <v>2</v>
       </c>
       <c r="E188" s="34" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F188" s="34" t="s">
         <v>30</v>
       </c>
       <c r="G188" s="34" t="s">
         <v>56</v>
+      </c>
+      <c r="H188" s="33" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
@@ -7985,7 +8559,13 @@
         <v>31</v>
       </c>
       <c r="G189" s="34" t="s">
-        <v>274</v>
+        <v>262</v>
+      </c>
+      <c r="H189" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="I189" s="68" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
@@ -7993,56 +8573,74 @@
         <v>3</v>
       </c>
       <c r="E190" s="34" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="G190" s="34" t="s">
-        <v>276</v>
+        <v>264</v>
+      </c>
+      <c r="H190" s="33" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E191" s="34" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G191" s="34" t="s">
-        <v>278</v>
+        <v>266</v>
+      </c>
+      <c r="H191" s="33" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E192" s="34" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G192" s="34" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="H192" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="I192" s="68" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D193" s="48">
         <v>4</v>
       </c>
       <c r="E193" s="34" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F193" s="34" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="G193" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+      <c r="H193" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F194" s="34" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G194" s="34" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+      <c r="H194" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D195" s="48">
         <v>5</v>
       </c>
       <c r="E195" s="34" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F195" s="34" t="s">
         <v>30</v>
@@ -8050,132 +8648,173 @@
       <c r="G195" s="34" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H195" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F196" s="34" t="s">
         <v>52</v>
       </c>
       <c r="G196" s="34" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+      <c r="H196" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E197" s="34" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F197" s="34" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G197" s="34" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="H197" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F198" s="34" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G198" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+      <c r="H198" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F199" s="34" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G199" s="34" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+      <c r="H199" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="40"/>
       <c r="B200" s="48"/>
       <c r="C200" s="48"/>
       <c r="D200" s="48"/>
       <c r="F200" s="39" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="G200" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="H200" s="48"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+      <c r="H200" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F201" s="34" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G201" s="34" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+      <c r="H201" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F202" s="39" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="G202" s="34" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+      <c r="H202" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B204" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C204" s="48" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D204" s="48">
         <v>1</v>
       </c>
       <c r="E204" s="34" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="G204" s="34" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+      <c r="H204" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="I204" s="68" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D205" s="48">
         <v>2</v>
       </c>
       <c r="E205" s="34" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F205" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G205" s="34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H205" s="33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F206" s="34" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G206" s="34" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+      <c r="H206" s="64" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F207" s="34" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="G207" s="34" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+      <c r="H207" s="64" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E208" s="34" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="G208" s="34" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+      <c r="H208" s="64" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="209" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D209" s="48">
         <v>3</v>
       </c>
       <c r="E209" s="34" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="F209" s="34" t="s">
         <v>67</v>
@@ -8183,59 +8822,80 @@
       <c r="G209" s="34" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="210" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H209" s="33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="210" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F210" s="34" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="G210" s="34" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="211" spans="4:7" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+      <c r="H210" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="211" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F211" s="34" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G211" s="34" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="212" spans="4:7" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+      <c r="H211" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="212" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E212" s="34" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="G212" s="34" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="213" spans="4:7" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+      <c r="H212" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="I212" s="68" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="213" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D213" s="48">
         <v>4</v>
       </c>
       <c r="E213" s="34" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F213" s="39" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="G213" s="39" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="214" spans="4:7" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+      <c r="H213" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="214" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F214" s="39" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G214" s="39" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="215" spans="4:7" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+      <c r="H214" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="215" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D215" s="48">
         <v>5</v>
       </c>
       <c r="E215" s="34" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="F215" s="39" t="s">
         <v>30</v>
@@ -8243,102 +8903,138 @@
       <c r="G215" s="39" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="216" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H215" s="33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="216" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F216" s="39" t="s">
         <v>52</v>
       </c>
       <c r="G216" s="39" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="217" spans="4:7" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+      <c r="H216" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="I216" s="68" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="217" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E217" s="34" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="G217" s="34" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="218" spans="4:7" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+      <c r="H217" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="218" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E218" s="39" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F218" s="39" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G218" s="39" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="219" spans="4:7" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="H218" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="219" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E219" s="39"/>
       <c r="F219" s="39" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G219" s="39" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="220" spans="4:7" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+      <c r="H219" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="220" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E220" s="39"/>
       <c r="F220" s="39" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G220" s="39" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+      <c r="H220" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="221" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E221" s="39"/>
       <c r="F221" s="39" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="G221" s="39" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="222" spans="4:7" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+      <c r="H221" s="33" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="222" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E222" s="39"/>
       <c r="F222" s="39" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G222" s="39" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="223" spans="4:7" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+      <c r="H222" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="223" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E223" s="39"/>
       <c r="F223" s="39" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="G223" s="39" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+      <c r="H223" s="33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B225" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C225" s="48" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D225" s="48">
         <v>1</v>
       </c>
       <c r="E225" s="34" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G225" s="34" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+      <c r="H225" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="I225" s="68" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D226" s="48">
         <v>2</v>
       </c>
       <c r="E226" s="39" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F226" s="39" t="s">
         <v>30</v>
@@ -8346,167 +9042,232 @@
       <c r="G226" s="39" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H226" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E227" s="39"/>
       <c r="F227" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G227" s="39" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+      <c r="H227" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="I227" s="68" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D228" s="48">
         <v>3</v>
       </c>
       <c r="E228" s="39" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F228" s="39"/>
       <c r="G228" s="39" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+        <v>315</v>
+      </c>
+      <c r="H228" s="33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E229" s="39" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F229" s="39"/>
       <c r="G229" s="39" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+      <c r="H229" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E230" s="39" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F230" s="39"/>
       <c r="G230" s="39" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="H230" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="I230" s="68" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" s="40"/>
       <c r="B231" s="48"/>
       <c r="C231" s="48"/>
       <c r="D231" s="48"/>
       <c r="E231" s="39" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G231" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="H231" s="48"/>
-    </row>
-    <row r="232" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+      <c r="H231" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A232" s="40"/>
       <c r="B232" s="48"/>
       <c r="C232" s="48"/>
       <c r="D232" s="48"/>
       <c r="E232" s="39" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G232" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="H232" s="48"/>
-    </row>
-    <row r="233" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+      <c r="H232" s="48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A233" s="40"/>
       <c r="B233" s="48"/>
       <c r="C233" s="48"/>
       <c r="D233" s="48"/>
       <c r="E233" s="39" t="s">
-        <v>332</v>
+        <v>444</v>
+      </c>
+      <c r="F233" s="39" t="s">
+        <v>445</v>
       </c>
       <c r="G233" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="H233" s="48"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D234" s="48">
+        <v>448</v>
+      </c>
+      <c r="H233" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="I233" s="68" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="40"/>
+      <c r="B234" s="64"/>
+      <c r="C234" s="64"/>
+      <c r="D234" s="64"/>
+      <c r="F234" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="G234" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="H234" s="64" t="s">
+        <v>408</v>
+      </c>
+      <c r="I234" s="68"/>
+    </row>
+    <row r="235" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="40"/>
+      <c r="B235" s="64"/>
+      <c r="C235" s="64"/>
+      <c r="D235" s="64"/>
+      <c r="F235" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="G235" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="H235" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="I235" s="68"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D236" s="48">
         <v>4</v>
       </c>
-      <c r="E234" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="F234" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="G234" s="39" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E235" s="39"/>
-      <c r="F235" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="G235" s="39" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D236" s="48">
-        <v>5</v>
-      </c>
       <c r="E236" s="39" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="F236" s="39" t="s">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="G236" s="39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+      <c r="H236" s="33" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E237" s="39"/>
       <c r="F237" s="39" t="s">
-        <v>52</v>
+        <v>271</v>
       </c>
       <c r="G237" s="39" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+      <c r="H237" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D238" s="48">
+        <v>5</v>
+      </c>
       <c r="E238" s="39" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="F238" s="39" t="s">
-        <v>289</v>
+        <v>30</v>
       </c>
       <c r="G238" s="39" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="H238" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E239" s="39"/>
       <c r="F239" s="39" t="s">
-        <v>290</v>
+        <v>52</v>
       </c>
       <c r="G239" s="39" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E240" s="39"/>
+        <v>275</v>
+      </c>
+      <c r="H239" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E240" s="39" t="s">
+        <v>276</v>
+      </c>
       <c r="F240" s="39" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="G240" s="39" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="241" spans="5:7" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+      <c r="H240" s="33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="241" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E241" s="39"/>
       <c r="F241" s="39" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G241" s="39" t="s">
-        <v>301</v>
+        <v>289</v>
+      </c>
+      <c r="H241" s="33" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -8514,167 +9275,279 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B2 E2:J2 E1:H1 A14:IS14 A11:J13 A6:G10 I6:J10 A3:G4 I3:J4 K1:IS13 H3:H10 A54:IS54 A152:IS158 A15:D16 H15:IS16 A17:IS52 A55:E55 H55:IS55 A56:IS67 A68:D90 H68:IS90 E68:G83 A91:E92 G91:IS92 A93:IS96 A97:C97 F97:IS97 A98:IS100 A101:D105 H101:IS105 E121:G131 A121:D136 H121:IS136 A147:D149 H147:IS149 A185:IS185 A183:C183 A182:F182 H182:IS184 E183:F183 A184:F184 A160:IS181 A187:B1048576 C187:IS65403">
-    <cfRule type="cellIs" dxfId="81" priority="130" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:B2 A6:G10 I6:J10 A3:G4 I3:J4 K1:IS13 H3:H10 A15:D16 H15:IS16 A56:E56 H56:IS56 A69:D91 E69:G84 A92:E93 A98:C98 A102:D106 H102:IS102 E122:G132 A122:D137 H122:IS123 A148:D150 H148:IS148 A183:C183 A182:F182 E183:F183 A184:F184 A187:B1048576 E2:J2 E1:H1 A14:IS14 A13:J13 A17:IS28 A152:IS161 A57:IS60 A94:IS97 F98:H98 A100:IS101 A185:IS186 C187:IS188 A107:IS108 A110:IS113 G138:IS139 A140:IS143 F144:IS144 A146:IS147 A11:H11 A12:G12 J11:J12 A30:IS33 A29:H29 J29:IS29 A44:IS44 A43:G43 J43:IS43 A45:H45 J45:IS45 A34:H34 J34:IS34 A35:IS42 A46:IS47 A49:IS55 A48:G48 J48:IS48 A63:IS68 A61:G62 J61:IS62 H69:IS73 H74 J74:IS74 H75:IS76 H78:IS78 H77 J77:IS77 H80:IS86 H79 J79:IS79 H88:IS91 H87 J87:IS87 G92:IS93 A99:G99 J98:IS99 H106:IS106 H105 J103:IS105 A116:IS121 A114:G115 J114:IS115 H125:IS125 H124 J124:IS124 H127:IS128 J126:IS126 H130:IS134 H129 J129:IS129 H136:IS137 H135 J135:IS135 A145:G145 J145:IS145 H150:IS150 J149:IS149 A162:H163 J162:IS163 C204:H204 J204:IS204 C205:IS211 C213:IS215 C212:H212 J212:IS212 C217:IS224 C216:H216 J216:IS216 C193:IS203 C192:H192 J192:IS192 C226:IS226 C225:H225 J225:IS225 C228:IS229 C227:H227 J227:IS227 C190:IS191 C189:G189 J189:IS189 C231:IS232 C230:G230 J230:IS230 C236:IS65403 J233:IS235 C233:H235 A180:G181 H180:IS184 A164:IS175 A179:IS179 A176:H178 J176:IS178">
+    <cfRule type="cellIs" dxfId="89" priority="159" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="160" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="79" priority="136" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="165" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="166" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="77" priority="138" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="167" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="168" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:G5 J5">
-    <cfRule type="cellIs" dxfId="75" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="59" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:IS53">
-    <cfRule type="cellIs" dxfId="73" priority="31" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="32" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151:IS151">
-    <cfRule type="cellIs" dxfId="71" priority="27" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="28" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:IS159">
-    <cfRule type="cellIs" dxfId="69" priority="25" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="26" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:IS186">
-    <cfRule type="cellIs" dxfId="67" priority="23" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:G16">
-    <cfRule type="cellIs" dxfId="65" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="50" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="51" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55:G55">
-    <cfRule type="cellIs" dxfId="63" priority="17" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F56:G56">
+    <cfRule type="cellIs" dxfId="79" priority="46" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="47" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A106:IS106">
-    <cfRule type="cellIs" dxfId="61" priority="15" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D98:E98">
+    <cfRule type="cellIs" dxfId="77" priority="42" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="43" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D97:E97">
-    <cfRule type="cellIs" dxfId="59" priority="13" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E105:E106 G105">
+    <cfRule type="cellIs" dxfId="75" priority="40" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="41" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104:E105 G104">
-    <cfRule type="cellIs" dxfId="57" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A109:E109 H109:IS109 A138:E139 A144:C144">
+    <cfRule type="cellIs" dxfId="73" priority="38" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="39" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107:IS107 A108:E108 H108:IS108 A109:IS120 A137:E138 G137:IS138 A139:IS142 A143:C143 F143:IS143 A144:IS146">
-    <cfRule type="cellIs" dxfId="55" priority="9" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F109:G109">
+    <cfRule type="cellIs" dxfId="71" priority="36" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="37" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:G108">
-    <cfRule type="cellIs" dxfId="53" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D144:E144">
+    <cfRule type="cellIs" dxfId="69" priority="34" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="35" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D143:E143">
-    <cfRule type="cellIs" dxfId="51" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E150 G150">
+    <cfRule type="cellIs" dxfId="67" priority="32" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E149 G149">
-    <cfRule type="cellIs" dxfId="49" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="33" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:G184">
-    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="30" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="31" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="63" priority="27" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="cellIs" dxfId="61" priority="25" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="26" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="cellIs" dxfId="59" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" dxfId="57" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="cellIs" dxfId="55" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H99">
+    <cfRule type="cellIs" dxfId="53" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H104:I104 H103">
+    <cfRule type="cellIs" dxfId="51" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114">
+    <cfRule type="cellIs" dxfId="49" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H115">
+    <cfRule type="cellIs" dxfId="47" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H126">
+    <cfRule type="cellIs" dxfId="45" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H145">
+    <cfRule type="cellIs" dxfId="43" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H149">
+    <cfRule type="cellIs" dxfId="41" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H189">
+    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H230">
+    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I11" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-2049"/>
+    <hyperlink ref="I12" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-2049"/>
+    <hyperlink ref="I29" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-2051"/>
+    <hyperlink ref="I43" r:id="rId4" display="http://192.168.199.122:8880/browse/BG-2051"/>
+    <hyperlink ref="I45" r:id="rId5" display="http://192.168.199.122:8880/browse/BG-2052"/>
+    <hyperlink ref="I34" r:id="rId6" display="http://192.168.199.122:8880/browse/BG-2054"/>
+    <hyperlink ref="I48" r:id="rId7" display="http://192.168.199.122:8880/browse/BG-2054"/>
+    <hyperlink ref="I61" r:id="rId8" display="http://192.168.199.122:8880/browse/BG-2049"/>
+    <hyperlink ref="I62" r:id="rId9" display="http://192.168.199.122:8880/browse/BG-2049"/>
+    <hyperlink ref="I74" r:id="rId10" display="http://192.168.199.122:8880/browse/BG-2055"/>
+    <hyperlink ref="I77" r:id="rId11" display="http://192.168.199.122:8880/browse/BG-2056"/>
+    <hyperlink ref="I79" r:id="rId12" display="http://192.168.199.122:8880/browse/BG-2057"/>
+    <hyperlink ref="I87" r:id="rId13" display="http://192.168.199.122:8880/browse/BG-2058"/>
+    <hyperlink ref="I98" r:id="rId14" display="http://192.168.199.122:8880/browse/BG-2059"/>
+    <hyperlink ref="I99" r:id="rId15" display="http://192.168.199.122:8880/browse/BG-2055"/>
+    <hyperlink ref="I103" r:id="rId16" display="http://192.168.199.122:8880/browse/BG-2058"/>
+    <hyperlink ref="I105" r:id="rId17" display="http://192.168.199.122:8880/browse/BG-2060"/>
+    <hyperlink ref="I114" r:id="rId18" display="http://192.168.199.122:8880/browse/BG-2049"/>
+    <hyperlink ref="I115" r:id="rId19" display="http://192.168.199.122:8880/browse/BG-2049"/>
+    <hyperlink ref="I124" r:id="rId20" display="http://192.168.199.122:8880/browse/BG-2062"/>
+    <hyperlink ref="I126" r:id="rId21" display="http://192.168.199.122:8880/browse/BG-2055"/>
+    <hyperlink ref="I129" r:id="rId22" display="http://192.168.199.122:8880/browse/BG-2063"/>
+    <hyperlink ref="I135" r:id="rId23" display="http://192.168.199.122:8880/browse/BG-2064"/>
+    <hyperlink ref="I145" r:id="rId24" display="http://192.168.199.122:8880/browse/BG-2055"/>
+    <hyperlink ref="I149" r:id="rId25" display="http://192.168.199.122:8880/browse/BG-2064"/>
+    <hyperlink ref="I162" r:id="rId26" display="http://192.168.199.122:8880/browse/BG-2065"/>
+    <hyperlink ref="I163" r:id="rId27" display="http://192.168.199.122:8880/browse/BG-2067"/>
+    <hyperlink ref="I204" r:id="rId28" display="http://192.168.199.122:8880/browse/BG-2068"/>
+    <hyperlink ref="I212" r:id="rId29" display="http://192.168.199.122:8880/browse/BG-2069"/>
+    <hyperlink ref="I216" r:id="rId30" display="http://192.168.199.122:8880/browse/BG-2070"/>
+    <hyperlink ref="I192" r:id="rId31" display="http://192.168.199.122:8880/browse/BG-2072"/>
+    <hyperlink ref="I225" r:id="rId32" display="http://192.168.199.122:8880/browse/BG-2073"/>
+    <hyperlink ref="I227" r:id="rId33" display="http://192.168.199.122:8880/browse/BG-2074"/>
+    <hyperlink ref="I189" r:id="rId34" display="http://192.168.199.122:8880/browse/BG-2074"/>
+    <hyperlink ref="I230" r:id="rId35" display="http://192.168.199.122:8880/browse/BG-2072"/>
+    <hyperlink ref="I233" r:id="rId36" display="http://192.168.199.122:8880/browse/BG-2075"/>
+    <hyperlink ref="I176" r:id="rId37" display="http://192.168.199.122:8880/browse/BG-2078"/>
+    <hyperlink ref="I177" r:id="rId38" display="http://192.168.199.122:8880/browse/BG-2078"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId39"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId40"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.5" style="40" customWidth="1"/>
     <col min="2" max="2" width="7.625" style="48" customWidth="1"/>
@@ -8691,10 +9564,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="44"/>
-      <c r="C1" s="64"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="C1" s="61"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:10" s="35" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
@@ -8730,379 +9603,399 @@
     </row>
     <row r="3" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D3" s="43">
         <v>1</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="H3" s="48"/>
+        <v>330</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="4" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
       <c r="F4" s="45" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="H4" s="48"/>
+        <v>331</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="5" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
       <c r="F5" s="45" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="H5" s="48"/>
+        <v>328</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="6" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="F6" s="45" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="H6" s="48"/>
+        <v>329</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="7" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="H7" s="48"/>
-    </row>
-    <row r="8" spans="1:10" s="38" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="B8" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="D8" s="43">
-        <v>1</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>349</v>
+      <c r="D7" s="43">
+        <v>2</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="F8" s="45" t="s">
+        <v>382</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="H8" s="48"/>
-    </row>
-    <row r="9" spans="1:10" s="38" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="I8" s="68" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
-      <c r="E9" s="65" t="s">
-        <v>352</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>356</v>
-      </c>
       <c r="H9" s="48"/>
     </row>
-    <row r="10" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+    <row r="10" spans="1:10" s="38" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="B10" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="43">
+        <v>1</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>334</v>
+      </c>
       <c r="F10" s="38" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="38" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
+      <c r="E11" s="62" t="s">
+        <v>338</v>
+      </c>
       <c r="F11" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="F13" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="H13" s="64" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F14" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+      <c r="B16" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" s="48">
+        <v>1</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F17" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F18" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D19" s="48">
+        <v>2</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="G19" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="H19" s="64" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" s="48">
+        <v>1</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="F21" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="H11" s="43"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F12" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="G12" s="38" t="s">
+      <c r="G21" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E22" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="F22" s="39" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="C14" s="43" t="s">
+      <c r="G22" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="H22" s="64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E23" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="F23" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="D14" s="48">
-        <v>1</v>
-      </c>
-      <c r="E14" s="39" t="s">
+      <c r="G23" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="H23" s="64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F24" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G24" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F25" s="39" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E15" s="66" t="s">
+      <c r="G25" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="H25" s="64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F26" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="G26" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="H26" s="64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F27" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G27" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="H27" s="64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F28" s="39" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F16" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="G16" s="39" t="s">
+      <c r="G28" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="I28" s="68" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F29" s="39" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F17" s="39" t="s">
+      <c r="G29" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="G17" s="39" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="33" x14ac:dyDescent="0.35">
-      <c r="B19" s="48" t="s">
-        <v>346</v>
-      </c>
-      <c r="C19" s="48" t="s">
+      <c r="H29" s="48" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D30" s="48">
+        <v>2</v>
+      </c>
+      <c r="E30" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="D19" s="48">
-        <v>1</v>
-      </c>
-      <c r="E19" s="39" t="s">
+      <c r="F30" s="39" t="s">
         <v>370</v>
       </c>
-      <c r="G19" s="39" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F20" s="39" t="s">
+      <c r="G30" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="H30" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="I30" s="68" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E31" s="63"/>
+      <c r="F31" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="G20" s="39" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F21" s="39" t="s">
-        <v>372</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D22" s="48">
-        <v>2</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>376</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="D24" s="48">
-        <v>1</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>379</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>381</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E25" s="66" t="s">
-        <v>380</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F26" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F27" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F28" s="39" t="s">
-        <v>385</v>
-      </c>
-      <c r="G28" s="39" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F29" s="39" t="s">
-        <v>386</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F30" s="39" t="s">
-        <v>387</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F31" s="39" t="s">
-        <v>390</v>
-      </c>
       <c r="G31" s="39" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="F32" s="39" t="s">
-        <v>391</v>
-      </c>
-      <c r="G32" s="39" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="F33" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="F34" s="39" t="s">
-        <v>395</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D35" s="48">
-        <v>2</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>393</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>381</v>
-      </c>
-      <c r="G35" s="39" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="E36" s="66"/>
-      <c r="F36" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="G36" s="39" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="F37" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="F38" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="F39" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="F40" s="39" t="s">
-        <v>395</v>
-      </c>
-      <c r="G40" s="39" t="s">
-        <v>389</v>
+        <v>365</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -9110,88 +10003,93 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B2 E2:J2 E1:H1 A7:G9 I5:J9 A3:G3 I3:J3 H3:H9 A5:E6 K1:IS11 A10:J11 A12:IS13 D14:IS14 A15:B1048576 A14 C15:IS65326">
-    <cfRule type="cellIs" dxfId="45" priority="17" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:B2 A3:G3 I3:J3 A5:E8 K1:IS13 C34:E35 E2:J2 E1:H1 A15:IS15 C36:G65321 H34:IS65321 A9:G14 I14:IS14 I5:J7 C28:H28 J28:IS28 C16:IS27 A16:B1048576 C29:IS29 C31:IS33 C30:G30 J30:IS30 H3:H14 I9:J13 J8">
+    <cfRule type="cellIs" dxfId="35" priority="20" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="21" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="43" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="22" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="23" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="41" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="24" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:E4 J4 G4">
-    <cfRule type="cellIs" dxfId="39" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="18" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="19" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="37" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="17" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="35" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="14" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="15" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G6:G8">
+    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="31" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F6:F8">
+    <cfRule type="cellIs" dxfId="21" priority="10" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="11" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="29" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="9" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C14">
-    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H30">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I28" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-2076"/>
+    <hyperlink ref="I30" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-2076"/>
+    <hyperlink ref="I8" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-2077"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId4"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -9204,7 +10102,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="15.5" style="6" bestFit="1" customWidth="1"/>
@@ -9635,34 +10533,34 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H9:H13 H22:H65429 H1:H6">
-    <cfRule type="cellIs" dxfId="25" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H21">
-    <cfRule type="cellIs" dxfId="23" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/qa/01.测试用例/扭蛋系统/扭蛋系统测试用例.xlsx
+++ b/qa/01.测试用例/扭蛋系统/扭蛋系统测试用例.xlsx
@@ -1157,14 +1157,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>显示宠物A名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示宠物B名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>查看宠物名称字色</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1238,10 +1230,6 @@
   </si>
   <si>
     <t>查看宠物icon</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>符合通用宠物icon显示规则</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1788,6 +1776,18 @@
   </si>
   <si>
     <t>BG-2078</t>
+  </si>
+  <si>
+    <t>符合通用宠物icon显示规则，并显示宠物稀有度</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示宠物A名称和稀有度</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示宠物B名称和稀有度</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2034,7 +2034,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2101,6 +2101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2564,7 +2570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2734,6 +2740,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2743,8 +2752,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="138">
@@ -2887,151 +2896,7 @@
     <cellStyle name="好 2" xfId="80"/>
     <cellStyle name="检查单元格 2" xfId="26"/>
   </cellStyles>
-  <dxfs count="98">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
+  <dxfs count="82">
     <dxf>
       <font>
         <b/>
@@ -4487,10 +4352,10 @@
     </row>
     <row r="8" spans="1:256" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -5647,8 +5512,8 @@
   <dimension ref="A1:J241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G177" sqref="G177"/>
+      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G206" sqref="G206:G207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5669,9 +5534,9 @@
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="44"/>
       <c r="C1" s="61"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
     </row>
     <row r="2" spans="1:10" s="35" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
@@ -5736,7 +5601,7 @@
         <v>46</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -5756,7 +5621,7 @@
         <v>50</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -5771,7 +5636,7 @@
         <v>51</v>
       </c>
       <c r="H6" s="46" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -5786,7 +5651,7 @@
         <v>53</v>
       </c>
       <c r="H7" s="46" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -5806,7 +5671,7 @@
         <v>56</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -5821,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -5836,7 +5701,7 @@
         <v>59</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -5853,10 +5718,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="I11" s="65" t="s">
         <v>386</v>
-      </c>
-      <c r="I11" s="68" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -5871,10 +5736,10 @@
         <v>65</v>
       </c>
       <c r="H12" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="I12" s="65" t="s">
         <v>386</v>
-      </c>
-      <c r="I12" s="68" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -5894,7 +5759,7 @@
         <v>68</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -5905,7 +5770,7 @@
         <v>69</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -5919,7 +5784,7 @@
         <v>68</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -5931,7 +5796,7 @@
         <v>71</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
@@ -5954,7 +5819,7 @@
         <v>74</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
@@ -5965,7 +5830,7 @@
         <v>74</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
@@ -5976,7 +5841,7 @@
         <v>74</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
@@ -5987,7 +5852,7 @@
         <v>80</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
@@ -6010,7 +5875,7 @@
         <v>86</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
@@ -6021,7 +5886,7 @@
         <v>87</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
@@ -6041,7 +5906,7 @@
         <v>91</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
@@ -6058,7 +5923,7 @@
         <v>93</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
@@ -6066,10 +5931,10 @@
         <v>52</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
@@ -6083,10 +5948,10 @@
         <v>95</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="I29" s="68" t="s">
-        <v>392</v>
+        <v>388</v>
+      </c>
+      <c r="I29" s="65" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
@@ -6103,7 +5968,7 @@
         <v>56</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
@@ -6114,7 +5979,7 @@
         <v>97</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
@@ -6131,18 +5996,18 @@
         <v>57</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F33" s="34" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G33" s="34" t="s">
         <v>101</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6151,16 +6016,16 @@
       <c r="C34" s="64"/>
       <c r="D34" s="64"/>
       <c r="F34" s="39" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>102</v>
       </c>
       <c r="H34" s="64" t="s">
-        <v>386</v>
-      </c>
-      <c r="I34" s="68" t="s">
-        <v>396</v>
+        <v>383</v>
+      </c>
+      <c r="I34" s="65" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -6171,7 +6036,7 @@
         <v>102</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6189,7 +6054,7 @@
         <v>110</v>
       </c>
       <c r="H36" s="48" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6204,7 +6069,7 @@
         <v>111</v>
       </c>
       <c r="H37" s="64" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6219,7 +6084,7 @@
         <v>111</v>
       </c>
       <c r="H38" s="64" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6247,7 +6112,7 @@
         <v>91</v>
       </c>
       <c r="H40" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6267,7 +6132,7 @@
         <v>93</v>
       </c>
       <c r="H41" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6282,7 +6147,7 @@
         <v>120</v>
       </c>
       <c r="H42" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6299,10 +6164,10 @@
         <v>114</v>
       </c>
       <c r="H43" s="64" t="s">
-        <v>391</v>
-      </c>
-      <c r="I43" s="68" t="s">
-        <v>392</v>
+        <v>388</v>
+      </c>
+      <c r="I43" s="65" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6322,7 +6187,7 @@
         <v>56</v>
       </c>
       <c r="H44" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6337,10 +6202,10 @@
         <v>121</v>
       </c>
       <c r="H45" s="48" t="s">
-        <v>394</v>
-      </c>
-      <c r="I45" s="68" t="s">
-        <v>395</v>
+        <v>391</v>
+      </c>
+      <c r="I45" s="65" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6360,7 +6225,7 @@
         <v>57</v>
       </c>
       <c r="H46" s="48" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6375,7 +6240,7 @@
         <v>101</v>
       </c>
       <c r="H47" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6390,10 +6255,10 @@
         <v>115</v>
       </c>
       <c r="H48" s="64" t="s">
-        <v>386</v>
-      </c>
-      <c r="I48" s="68" t="s">
-        <v>396</v>
+        <v>383</v>
+      </c>
+      <c r="I48" s="65" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6411,7 +6276,7 @@
         <v>110</v>
       </c>
       <c r="H49" s="64" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6426,7 +6291,7 @@
         <v>111</v>
       </c>
       <c r="H50" s="64" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6441,7 +6306,7 @@
         <v>111</v>
       </c>
       <c r="H51" s="64" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6479,7 +6344,7 @@
         <v>124</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -6496,7 +6361,7 @@
         <v>126</v>
       </c>
       <c r="H56" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="33" x14ac:dyDescent="0.35">
@@ -6507,7 +6372,7 @@
         <v>127</v>
       </c>
       <c r="H57" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -6524,7 +6389,7 @@
         <v>56</v>
       </c>
       <c r="H58" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -6536,7 +6401,7 @@
         <v>57</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -6548,7 +6413,7 @@
         <v>128</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -6563,10 +6428,10 @@
         <v>61</v>
       </c>
       <c r="H61" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="I61" s="65" t="s">
         <v>386</v>
-      </c>
-      <c r="I61" s="68" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -6578,10 +6443,10 @@
         <v>65</v>
       </c>
       <c r="H62" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="I62" s="65" t="s">
         <v>386</v>
-      </c>
-      <c r="I62" s="68" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -6598,7 +6463,7 @@
         <v>57</v>
       </c>
       <c r="H63" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -6609,7 +6474,7 @@
         <v>153</v>
       </c>
       <c r="H64" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6629,7 +6494,7 @@
         <v>68</v>
       </c>
       <c r="H65" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6644,7 +6509,7 @@
         <v>157</v>
       </c>
       <c r="H66" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6672,7 +6537,7 @@
         <v>160</v>
       </c>
       <c r="H68" s="48" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6692,7 +6557,7 @@
         <v>68</v>
       </c>
       <c r="H69" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6708,7 +6573,7 @@
         <v>132</v>
       </c>
       <c r="H70" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6728,7 +6593,7 @@
         <v>137</v>
       </c>
       <c r="H71" s="64" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6743,7 +6608,7 @@
         <v>138</v>
       </c>
       <c r="H72" s="64" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6758,7 +6623,7 @@
         <v>137</v>
       </c>
       <c r="H73" s="64" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6776,10 +6641,10 @@
         <v>110</v>
       </c>
       <c r="H74" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="I74" s="68" t="s">
-        <v>401</v>
+        <v>388</v>
+      </c>
+      <c r="I74" s="65" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6794,7 +6659,7 @@
         <v>111</v>
       </c>
       <c r="H75" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6809,7 +6674,7 @@
         <v>111</v>
       </c>
       <c r="H76" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6829,10 +6694,10 @@
         <v>140</v>
       </c>
       <c r="H77" s="48" t="s">
-        <v>394</v>
-      </c>
-      <c r="I77" s="68" t="s">
-        <v>404</v>
+        <v>391</v>
+      </c>
+      <c r="I77" s="65" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -6844,7 +6709,7 @@
         <v>141</v>
       </c>
       <c r="H78" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -6853,13 +6718,13 @@
         <v>136</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H79" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="I79" s="65" t="s">
         <v>403</v>
-      </c>
-      <c r="I79" s="68" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -6876,7 +6741,7 @@
         <v>146</v>
       </c>
       <c r="H80" s="64" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6891,7 +6756,7 @@
         <v>147</v>
       </c>
       <c r="H81" s="64" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6906,7 +6771,7 @@
         <v>148</v>
       </c>
       <c r="H82" s="64" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6923,7 +6788,7 @@
         <v>150</v>
       </c>
       <c r="H83" s="48" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6938,7 +6803,7 @@
         <v>152</v>
       </c>
       <c r="H84" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6958,7 +6823,7 @@
         <v>165</v>
       </c>
       <c r="H85" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6973,7 +6838,7 @@
         <v>166</v>
       </c>
       <c r="H86" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -6988,10 +6853,10 @@
         <v>169</v>
       </c>
       <c r="H87" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="I87" s="68" t="s">
-        <v>407</v>
+        <v>383</v>
+      </c>
+      <c r="I87" s="65" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7006,7 +6871,7 @@
         <v>170</v>
       </c>
       <c r="H88" s="48" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7021,10 +6886,10 @@
         <v>172</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H89" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7036,10 +6901,10 @@
         <v>173</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H90" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7054,7 +6919,7 @@
         <v>174</v>
       </c>
       <c r="H91" s="48" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7072,7 +6937,7 @@
         <v>176</v>
       </c>
       <c r="H92" s="64" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7087,7 +6952,7 @@
         <v>185</v>
       </c>
       <c r="H93" s="64" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7108,7 +6973,7 @@
         <v>178</v>
       </c>
       <c r="H95" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7128,7 +6993,7 @@
         <v>68</v>
       </c>
       <c r="H96" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7143,7 +7008,7 @@
         <v>179</v>
       </c>
       <c r="H97" s="48" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7157,13 +7022,13 @@
         <v>133</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H98" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="I98" s="68" t="s">
-        <v>411</v>
+        <v>388</v>
+      </c>
+      <c r="I98" s="65" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7181,10 +7046,10 @@
         <v>110</v>
       </c>
       <c r="H99" s="64" t="s">
-        <v>391</v>
-      </c>
-      <c r="I99" s="68" t="s">
-        <v>401</v>
+        <v>388</v>
+      </c>
+      <c r="I99" s="65" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7199,7 +7064,7 @@
         <v>111</v>
       </c>
       <c r="H100" s="48" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7214,7 +7079,7 @@
         <v>111</v>
       </c>
       <c r="H101" s="48" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7234,7 +7099,7 @@
         <v>166</v>
       </c>
       <c r="H102" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7249,10 +7114,10 @@
         <v>169</v>
       </c>
       <c r="H103" s="64" t="s">
-        <v>386</v>
-      </c>
-      <c r="I103" s="68" t="s">
-        <v>407</v>
+        <v>383</v>
+      </c>
+      <c r="I103" s="65" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7267,7 +7132,7 @@
         <v>170</v>
       </c>
       <c r="H104" s="64" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7282,10 +7147,10 @@
         <v>184</v>
       </c>
       <c r="H105" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="I105" s="68" t="s">
-        <v>413</v>
+        <v>388</v>
+      </c>
+      <c r="I105" s="65" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -7321,7 +7186,7 @@
         <v>187</v>
       </c>
       <c r="H108" s="48" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7341,7 +7206,7 @@
         <v>126</v>
       </c>
       <c r="H109" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -7356,7 +7221,7 @@
         <v>189</v>
       </c>
       <c r="H110" s="48" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7376,7 +7241,7 @@
         <v>56</v>
       </c>
       <c r="H111" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7392,7 +7257,7 @@
         <v>57</v>
       </c>
       <c r="H112" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7408,7 +7273,7 @@
         <v>128</v>
       </c>
       <c r="H113" s="48" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="114" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7426,10 +7291,10 @@
         <v>64</v>
       </c>
       <c r="H114" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="I114" s="65" t="s">
         <v>386</v>
-      </c>
-      <c r="I114" s="68" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7445,10 +7310,10 @@
         <v>65</v>
       </c>
       <c r="H115" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="I115" s="65" t="s">
         <v>386</v>
-      </c>
-      <c r="I115" s="68" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7468,7 +7333,7 @@
         <v>57</v>
       </c>
       <c r="H116" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7483,7 +7348,7 @@
         <v>153</v>
       </c>
       <c r="H117" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="118" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7503,7 +7368,7 @@
         <v>68</v>
       </c>
       <c r="H118" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7518,7 +7383,7 @@
         <v>157</v>
       </c>
       <c r="H119" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7546,7 +7411,7 @@
         <v>160</v>
       </c>
       <c r="H121" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7566,7 +7431,7 @@
         <v>68</v>
       </c>
       <c r="H122" s="48" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="123" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7581,7 +7446,7 @@
         <v>132</v>
       </c>
       <c r="H123" s="48" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7601,10 +7466,10 @@
         <v>190</v>
       </c>
       <c r="H124" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="I124" s="68" t="s">
-        <v>418</v>
+        <v>383</v>
+      </c>
+      <c r="I124" s="65" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7619,7 +7484,7 @@
         <v>138</v>
       </c>
       <c r="H125" s="48" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7637,10 +7502,10 @@
         <v>110</v>
       </c>
       <c r="H126" s="64" t="s">
-        <v>391</v>
-      </c>
-      <c r="I126" s="68" t="s">
-        <v>401</v>
+        <v>388</v>
+      </c>
+      <c r="I126" s="65" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7655,7 +7520,7 @@
         <v>111</v>
       </c>
       <c r="H127" s="48" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7670,7 +7535,7 @@
         <v>111</v>
       </c>
       <c r="H128" s="48" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7687,13 +7552,13 @@
         <v>134</v>
       </c>
       <c r="G129" s="39" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H129" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="I129" s="68" t="s">
-        <v>421</v>
+        <v>388</v>
+      </c>
+      <c r="I129" s="65" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7705,10 +7570,10 @@
         <v>135</v>
       </c>
       <c r="G130" s="39" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H130" s="48" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="131" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7738,7 +7603,7 @@
         <v>152</v>
       </c>
       <c r="H132" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="133" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7758,7 +7623,7 @@
         <v>165</v>
       </c>
       <c r="H133" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="134" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7773,7 +7638,7 @@
         <v>166</v>
       </c>
       <c r="H134" s="48" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="135" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7788,10 +7653,10 @@
         <v>200</v>
       </c>
       <c r="H135" s="48" t="s">
-        <v>423</v>
-      </c>
-      <c r="I135" s="68" t="s">
-        <v>424</v>
+        <v>420</v>
+      </c>
+      <c r="I135" s="65" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7806,10 +7671,10 @@
         <v>90</v>
       </c>
       <c r="G136" s="39" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H136" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="137" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7824,7 +7689,7 @@
         <v>174</v>
       </c>
       <c r="H137" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="138" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7842,7 +7707,7 @@
         <v>193</v>
       </c>
       <c r="H138" s="48" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7857,7 +7722,7 @@
         <v>194</v>
       </c>
       <c r="H139" s="48" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7885,7 +7750,7 @@
         <v>178</v>
       </c>
       <c r="H141" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7905,7 +7770,7 @@
         <v>68</v>
       </c>
       <c r="H142" s="48" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7920,7 +7785,7 @@
         <v>179</v>
       </c>
       <c r="H143" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7937,7 +7802,7 @@
         <v>195</v>
       </c>
       <c r="H144" s="48" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7955,10 +7820,10 @@
         <v>110</v>
       </c>
       <c r="H145" s="64" t="s">
-        <v>391</v>
-      </c>
-      <c r="I145" s="68" t="s">
-        <v>401</v>
+        <v>388</v>
+      </c>
+      <c r="I145" s="65" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7973,7 +7838,7 @@
         <v>111</v>
       </c>
       <c r="H146" s="48" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -7988,7 +7853,7 @@
         <v>111</v>
       </c>
       <c r="H147" s="48" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8008,7 +7873,7 @@
         <v>166</v>
       </c>
       <c r="H148" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8020,13 +7885,13 @@
         <v>201</v>
       </c>
       <c r="G149" s="39" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H149" s="64" t="s">
-        <v>423</v>
-      </c>
-      <c r="I149" s="68" t="s">
-        <v>424</v>
+        <v>420</v>
+      </c>
+      <c r="I149" s="65" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8041,7 +7906,7 @@
         <v>197</v>
       </c>
       <c r="H150" s="48" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="57" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -8072,7 +7937,7 @@
         <v>204</v>
       </c>
       <c r="H153" s="33" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="33" x14ac:dyDescent="0.35">
@@ -8086,7 +7951,7 @@
         <v>206</v>
       </c>
       <c r="H154" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8101,7 +7966,7 @@
         <v>212</v>
       </c>
       <c r="H155" s="48" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8116,7 +7981,7 @@
         <v>213</v>
       </c>
       <c r="H156" s="48" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
@@ -8130,7 +7995,7 @@
         <v>208</v>
       </c>
       <c r="H157" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
@@ -8144,7 +8009,7 @@
         <v>210</v>
       </c>
       <c r="H158" s="33" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="57" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -8186,10 +8051,10 @@
         <v>217</v>
       </c>
       <c r="H162" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="I162" s="68" t="s">
-        <v>430</v>
+        <v>388</v>
+      </c>
+      <c r="I162" s="65" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
@@ -8200,10 +8065,10 @@
         <v>221</v>
       </c>
       <c r="H163" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="I163" s="68" t="s">
-        <v>431</v>
+        <v>388</v>
+      </c>
+      <c r="I163" s="65" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
@@ -8220,7 +8085,7 @@
         <v>224</v>
       </c>
       <c r="H164" s="33" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
@@ -8231,7 +8096,7 @@
         <v>225</v>
       </c>
       <c r="H165" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="33" x14ac:dyDescent="0.35">
@@ -8242,7 +8107,7 @@
         <v>226</v>
       </c>
       <c r="H166" s="33" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
@@ -8256,7 +8121,7 @@
         <v>228</v>
       </c>
       <c r="H167" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8277,7 +8142,7 @@
         <v>247</v>
       </c>
       <c r="H169" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="170" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8297,7 +8162,7 @@
         <v>250</v>
       </c>
       <c r="H170" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -8312,7 +8177,7 @@
         <v>252</v>
       </c>
       <c r="H171" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="172" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8326,10 +8191,10 @@
         <v>253</v>
       </c>
       <c r="G172" s="39" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H172" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="173" spans="1:9" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -8346,7 +8211,7 @@
         <v>255</v>
       </c>
       <c r="H173" s="48" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="174" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8361,7 +8226,7 @@
         <v>257</v>
       </c>
       <c r="H174" s="48" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="175" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8391,24 +8256,24 @@
         <v>232</v>
       </c>
       <c r="H176" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="I176" s="68" t="s">
-        <v>460</v>
+        <v>388</v>
+      </c>
+      <c r="I176" s="65" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F177" s="39" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G177" s="39" t="s">
         <v>234</v>
       </c>
       <c r="H177" s="64" t="s">
-        <v>391</v>
-      </c>
-      <c r="I177" s="68" t="s">
-        <v>460</v>
+        <v>388</v>
+      </c>
+      <c r="I177" s="65" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
@@ -8419,9 +8284,9 @@
         <v>235</v>
       </c>
       <c r="H178" s="64" t="s">
-        <v>387</v>
-      </c>
-      <c r="I178" s="68"/>
+        <v>384</v>
+      </c>
+      <c r="I178" s="65"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D179" s="48">
@@ -8437,7 +8302,7 @@
         <v>232</v>
       </c>
       <c r="H179" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
@@ -8448,7 +8313,7 @@
         <v>234</v>
       </c>
       <c r="H180" s="64" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
@@ -8459,7 +8324,7 @@
         <v>235</v>
       </c>
       <c r="H181" s="64" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
@@ -8476,7 +8341,7 @@
         <v>232</v>
       </c>
       <c r="H182" s="64" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
@@ -8488,7 +8353,7 @@
         <v>234</v>
       </c>
       <c r="H183" s="64" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="184" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8497,13 +8362,13 @@
       <c r="C184" s="48"/>
       <c r="D184" s="48"/>
       <c r="F184" s="39" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G184" s="39" t="s">
         <v>235</v>
       </c>
       <c r="H184" s="64" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="186" spans="1:9" s="57" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -8534,7 +8399,7 @@
         <v>260</v>
       </c>
       <c r="H187" s="33" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
@@ -8551,7 +8416,7 @@
         <v>56</v>
       </c>
       <c r="H188" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
@@ -8562,10 +8427,10 @@
         <v>262</v>
       </c>
       <c r="H189" s="64" t="s">
-        <v>394</v>
-      </c>
-      <c r="I189" s="68" t="s">
-        <v>442</v>
+        <v>391</v>
+      </c>
+      <c r="I189" s="65" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
@@ -8579,7 +8444,7 @@
         <v>264</v>
       </c>
       <c r="H190" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
@@ -8590,7 +8455,7 @@
         <v>266</v>
       </c>
       <c r="H191" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
@@ -8601,10 +8466,10 @@
         <v>268</v>
       </c>
       <c r="H192" s="33" t="s">
-        <v>386</v>
-      </c>
-      <c r="I192" s="68" t="s">
-        <v>439</v>
+        <v>383</v>
+      </c>
+      <c r="I192" s="65" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
@@ -8621,7 +8486,7 @@
         <v>272</v>
       </c>
       <c r="H193" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
@@ -8632,7 +8497,7 @@
         <v>273</v>
       </c>
       <c r="H194" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
@@ -8649,7 +8514,7 @@
         <v>56</v>
       </c>
       <c r="H195" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.35">
@@ -8660,7 +8525,7 @@
         <v>275</v>
       </c>
       <c r="H196" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
@@ -8674,7 +8539,7 @@
         <v>280</v>
       </c>
       <c r="H197" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.35">
@@ -8685,7 +8550,7 @@
         <v>281</v>
       </c>
       <c r="H198" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
@@ -8693,10 +8558,10 @@
         <v>283</v>
       </c>
       <c r="G199" s="34" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H199" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="200" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -8711,7 +8576,7 @@
         <v>287</v>
       </c>
       <c r="H200" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
@@ -8722,7 +8587,7 @@
         <v>288</v>
       </c>
       <c r="H201" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.35">
@@ -8733,7 +8598,7 @@
         <v>289</v>
       </c>
       <c r="H202" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.35">
@@ -8753,10 +8618,10 @@
         <v>292</v>
       </c>
       <c r="H204" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="I204" s="68" t="s">
-        <v>435</v>
+        <v>388</v>
+      </c>
+      <c r="I204" s="65" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.35">
@@ -8773,40 +8638,40 @@
         <v>68</v>
       </c>
       <c r="H205" s="33" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F206" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="G206" s="34" t="s">
-        <v>296</v>
+      <c r="G206" s="69" t="s">
+        <v>459</v>
       </c>
       <c r="H206" s="64" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F207" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="G207" s="34" t="s">
-        <v>297</v>
+      <c r="G207" s="69" t="s">
+        <v>460</v>
       </c>
       <c r="H207" s="64" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E208" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G208" s="34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H208" s="64" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="209" spans="4:9" x14ac:dyDescent="0.35">
@@ -8814,7 +8679,7 @@
         <v>3</v>
       </c>
       <c r="E209" s="34" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F209" s="34" t="s">
         <v>67</v>
@@ -8823,43 +8688,43 @@
         <v>56</v>
       </c>
       <c r="H209" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="210" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F210" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G210" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="G210" s="34" t="s">
-        <v>303</v>
-      </c>
       <c r="H210" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="211" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F211" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="G211" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="G211" s="34" t="s">
-        <v>304</v>
-      </c>
       <c r="H211" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="212" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E212" s="34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G212" s="34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H212" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="I212" s="68" t="s">
-        <v>437</v>
+        <v>433</v>
+      </c>
+      <c r="I212" s="65" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="213" spans="4:9" x14ac:dyDescent="0.35">
@@ -8867,7 +8732,7 @@
         <v>4</v>
       </c>
       <c r="E213" s="34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F213" s="39" t="s">
         <v>270</v>
@@ -8876,7 +8741,7 @@
         <v>272</v>
       </c>
       <c r="H213" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="214" spans="4:9" x14ac:dyDescent="0.35">
@@ -8887,7 +8752,7 @@
         <v>273</v>
       </c>
       <c r="H214" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="215" spans="4:9" x14ac:dyDescent="0.35">
@@ -8895,7 +8760,7 @@
         <v>5</v>
       </c>
       <c r="E215" s="34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F215" s="39" t="s">
         <v>30</v>
@@ -8904,7 +8769,7 @@
         <v>56</v>
       </c>
       <c r="H215" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="216" spans="4:9" x14ac:dyDescent="0.35">
@@ -8915,21 +8780,21 @@
         <v>275</v>
       </c>
       <c r="H216" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="I216" s="68" t="s">
-        <v>438</v>
+        <v>388</v>
+      </c>
+      <c r="I216" s="65" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="217" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E217" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G217" s="34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H217" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="218" spans="4:9" x14ac:dyDescent="0.35">
@@ -8943,7 +8808,7 @@
         <v>280</v>
       </c>
       <c r="H218" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="219" spans="4:9" x14ac:dyDescent="0.35">
@@ -8955,7 +8820,7 @@
         <v>281</v>
       </c>
       <c r="H219" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="220" spans="4:9" x14ac:dyDescent="0.35">
@@ -8967,7 +8832,7 @@
         <v>282</v>
       </c>
       <c r="H220" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="221" spans="4:9" x14ac:dyDescent="0.35">
@@ -8979,7 +8844,7 @@
         <v>287</v>
       </c>
       <c r="H221" s="33" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="222" spans="4:9" x14ac:dyDescent="0.35">
@@ -8991,7 +8856,7 @@
         <v>288</v>
       </c>
       <c r="H222" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="223" spans="4:9" x14ac:dyDescent="0.35">
@@ -9003,7 +8868,7 @@
         <v>289</v>
       </c>
       <c r="H223" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.35">
@@ -9011,22 +8876,22 @@
         <v>29</v>
       </c>
       <c r="C225" s="48" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D225" s="48">
         <v>1</v>
       </c>
       <c r="E225" s="34" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G225" s="34" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H225" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="I225" s="68" t="s">
-        <v>441</v>
+        <v>437</v>
+      </c>
+      <c r="I225" s="65" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.35">
@@ -9043,7 +8908,7 @@
         <v>56</v>
       </c>
       <c r="H226" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.35">
@@ -9055,10 +8920,10 @@
         <v>262</v>
       </c>
       <c r="H227" s="33" t="s">
-        <v>394</v>
-      </c>
-      <c r="I227" s="68" t="s">
-        <v>442</v>
+        <v>391</v>
+      </c>
+      <c r="I227" s="65" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.35">
@@ -9070,10 +8935,10 @@
       </c>
       <c r="F228" s="39"/>
       <c r="G228" s="39" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H228" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.35">
@@ -9085,7 +8950,7 @@
         <v>266</v>
       </c>
       <c r="H229" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.35">
@@ -9097,10 +8962,10 @@
         <v>268</v>
       </c>
       <c r="H230" s="64" t="s">
-        <v>386</v>
-      </c>
-      <c r="I230" s="68" t="s">
-        <v>439</v>
+        <v>383</v>
+      </c>
+      <c r="I230" s="65" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="231" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -9109,13 +8974,13 @@
       <c r="C231" s="48"/>
       <c r="D231" s="48"/>
       <c r="E231" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="G231" s="39" t="s">
-        <v>317</v>
+        <v>314</v>
+      </c>
+      <c r="G231" s="69" t="s">
+        <v>458</v>
       </c>
       <c r="H231" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="232" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -9124,13 +8989,13 @@
       <c r="C232" s="48"/>
       <c r="D232" s="48"/>
       <c r="E232" s="39" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G232" s="39" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H232" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="233" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -9139,19 +9004,19 @@
       <c r="C233" s="48"/>
       <c r="D233" s="48"/>
       <c r="E233" s="39" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F233" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="G233" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="G233" s="39" t="s">
-        <v>448</v>
-      </c>
       <c r="H233" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="I233" s="68" t="s">
-        <v>443</v>
+        <v>383</v>
+      </c>
+      <c r="I233" s="65" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="234" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
@@ -9160,15 +9025,15 @@
       <c r="C234" s="64"/>
       <c r="D234" s="64"/>
       <c r="F234" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="G234" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="G234" s="39" t="s">
-        <v>449</v>
-      </c>
       <c r="H234" s="64" t="s">
-        <v>408</v>
-      </c>
-      <c r="I234" s="68"/>
+        <v>405</v>
+      </c>
+      <c r="I234" s="65"/>
     </row>
     <row r="235" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="40"/>
@@ -9176,15 +9041,15 @@
       <c r="C235" s="64"/>
       <c r="D235" s="64"/>
       <c r="F235" s="39" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G235" s="39" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H235" s="64" t="s">
-        <v>398</v>
-      </c>
-      <c r="I235" s="68"/>
+        <v>395</v>
+      </c>
+      <c r="I235" s="65"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D236" s="48">
@@ -9200,7 +9065,7 @@
         <v>272</v>
       </c>
       <c r="H236" s="33" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.35">
@@ -9212,7 +9077,7 @@
         <v>273</v>
       </c>
       <c r="H237" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.35">
@@ -9229,7 +9094,7 @@
         <v>56</v>
       </c>
       <c r="H238" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.35">
@@ -9241,7 +9106,7 @@
         <v>275</v>
       </c>
       <c r="H239" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.35">
@@ -9255,19 +9120,19 @@
         <v>287</v>
       </c>
       <c r="H240" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="241" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E241" s="39"/>
       <c r="F241" s="39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G241" s="39" t="s">
         <v>289</v>
       </c>
       <c r="H241" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -9276,218 +9141,218 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A1:B2 A6:G10 I6:J10 A3:G4 I3:J4 K1:IS13 H3:H10 A15:D16 H15:IS16 A56:E56 H56:IS56 A69:D91 E69:G84 A92:E93 A98:C98 A102:D106 H102:IS102 E122:G132 A122:D137 H122:IS123 A148:D150 H148:IS148 A183:C183 A182:F182 E183:F183 A184:F184 A187:B1048576 E2:J2 E1:H1 A14:IS14 A13:J13 A17:IS28 A152:IS161 A57:IS60 A94:IS97 F98:H98 A100:IS101 A185:IS186 C187:IS188 A107:IS108 A110:IS113 G138:IS139 A140:IS143 F144:IS144 A146:IS147 A11:H11 A12:G12 J11:J12 A30:IS33 A29:H29 J29:IS29 A44:IS44 A43:G43 J43:IS43 A45:H45 J45:IS45 A34:H34 J34:IS34 A35:IS42 A46:IS47 A49:IS55 A48:G48 J48:IS48 A63:IS68 A61:G62 J61:IS62 H69:IS73 H74 J74:IS74 H75:IS76 H78:IS78 H77 J77:IS77 H80:IS86 H79 J79:IS79 H88:IS91 H87 J87:IS87 G92:IS93 A99:G99 J98:IS99 H106:IS106 H105 J103:IS105 A116:IS121 A114:G115 J114:IS115 H125:IS125 H124 J124:IS124 H127:IS128 J126:IS126 H130:IS134 H129 J129:IS129 H136:IS137 H135 J135:IS135 A145:G145 J145:IS145 H150:IS150 J149:IS149 A162:H163 J162:IS163 C204:H204 J204:IS204 C205:IS211 C213:IS215 C212:H212 J212:IS212 C217:IS224 C216:H216 J216:IS216 C193:IS203 C192:H192 J192:IS192 C226:IS226 C225:H225 J225:IS225 C228:IS229 C227:H227 J227:IS227 C190:IS191 C189:G189 J189:IS189 C231:IS232 C230:G230 J230:IS230 C236:IS65403 J233:IS235 C233:H235 A180:G181 H180:IS184 A164:IS175 A179:IS179 A176:H178 J176:IS178">
-    <cfRule type="cellIs" dxfId="89" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="159" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="160" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="160" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="87" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="165" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="166" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="166" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="85" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="167" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="168" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="168" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:G5 J5">
-    <cfRule type="cellIs" dxfId="83" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:G16">
-    <cfRule type="cellIs" dxfId="81" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="50" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="51" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:G56">
-    <cfRule type="cellIs" dxfId="79" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="46" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="47" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98:E98">
-    <cfRule type="cellIs" dxfId="77" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="42" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="43" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:E106 G105">
-    <cfRule type="cellIs" dxfId="75" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="40" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="41" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:E109 H109:IS109 A138:E139 A144:C144">
-    <cfRule type="cellIs" dxfId="73" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="38" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="39" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109:G109">
-    <cfRule type="cellIs" dxfId="71" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="36" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="37" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D144:E144">
-    <cfRule type="cellIs" dxfId="69" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="34" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="35" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E150 G150">
-    <cfRule type="cellIs" dxfId="67" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="32" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="33" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G182:G184">
-    <cfRule type="cellIs" dxfId="65" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="30" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="31" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="63" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="61" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="59" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="57" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="55" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99">
-    <cfRule type="cellIs" dxfId="53" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104:I104 H103">
-    <cfRule type="cellIs" dxfId="51" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114">
-    <cfRule type="cellIs" dxfId="49" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="47" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126">
-    <cfRule type="cellIs" dxfId="45" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H145">
-    <cfRule type="cellIs" dxfId="43" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H149">
-    <cfRule type="cellIs" dxfId="41" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189">
-    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H230">
-    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9565,9 +9430,9 @@
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="44"/>
       <c r="C1" s="61"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
     </row>
     <row r="2" spans="1:10" s="35" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
@@ -9603,25 +9468,25 @@
     </row>
     <row r="3" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="43" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D3" s="43">
         <v>1</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -9629,13 +9494,13 @@
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
       <c r="F4" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -9643,13 +9508,13 @@
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
       <c r="F5" s="45" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -9657,13 +9522,13 @@
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="F6" s="45" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -9673,16 +9538,16 @@
         <v>2</v>
       </c>
       <c r="E7" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="G7" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>383</v>
-      </c>
       <c r="H7" s="64" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -9690,16 +9555,16 @@
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="F8" s="45" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H8" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I8" s="65" t="s">
         <v>455</v>
-      </c>
-      <c r="I8" s="68" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -9710,25 +9575,25 @@
     </row>
     <row r="10" spans="1:10" s="38" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="B10" s="43" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D10" s="43">
         <v>1</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="38" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -9736,16 +9601,16 @@
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
       <c r="E11" s="62" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -9753,16 +9618,16 @@
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
       <c r="E12" s="62" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -9770,66 +9635,66 @@
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
       <c r="F13" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H13" s="64" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F14" s="38" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H14" s="64" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="B16" s="48" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D16" s="48">
         <v>1</v>
       </c>
       <c r="E16" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="G16" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="G16" s="39" t="s">
-        <v>349</v>
-      </c>
       <c r="H16" s="48" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F17" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="G17" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="G17" s="39" t="s">
-        <v>350</v>
-      </c>
       <c r="H17" s="64" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F18" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="G18" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="G18" s="39" t="s">
-        <v>351</v>
-      </c>
       <c r="H18" s="64" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
@@ -9837,133 +9702,133 @@
         <v>2</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H19" s="64" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="48" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D21" s="48">
         <v>1</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E22" s="63" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H22" s="64" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E23" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="H23" s="64" t="s">
         <v>454</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>359</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="H23" s="64" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F24" s="39" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H24" s="64" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F25" s="39" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H25" s="64" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F26" s="39" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H26" s="64" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F27" s="39" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H27" s="64" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F28" s="39" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H28" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="I28" s="68" t="s">
-        <v>456</v>
+        <v>452</v>
+      </c>
+      <c r="I28" s="65" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F29" s="39" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H29" s="48" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
@@ -9971,31 +9836,31 @@
         <v>2</v>
       </c>
       <c r="E30" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="G30" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="F30" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>372</v>
-      </c>
       <c r="H30" s="64" t="s">
-        <v>455</v>
-      </c>
-      <c r="I30" s="68" t="s">
-        <v>456</v>
+        <v>452</v>
+      </c>
+      <c r="I30" s="65" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E31" s="63"/>
       <c r="F31" s="39" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H31" s="48" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -10004,74 +9869,74 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:B2 A3:G3 I3:J3 A5:E8 K1:IS13 C34:E35 E2:J2 E1:H1 A15:IS15 C36:G65321 H34:IS65321 A9:G14 I14:IS14 I5:J7 C28:H28 J28:IS28 C16:IS27 A16:B1048576 C29:IS29 C31:IS33 C30:G30 J30:IS30 H3:H14 I9:J13 J8">
-    <cfRule type="cellIs" dxfId="35" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="20" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="33" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="31" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="25" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:E4 J4 G4">
-    <cfRule type="cellIs" dxfId="29" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="27" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="25" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G8">
-    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F8">
-    <cfRule type="cellIs" dxfId="21" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="19" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10533,34 +10398,34 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H9:H13 H22:H65429 H1:H6">
-    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H21">
-    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/qa/01.测试用例/扭蛋系统/扭蛋系统测试用例.xlsx
+++ b/qa/01.测试用例/扭蛋系统/扭蛋系统测试用例.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="463">
   <si>
     <t>目录与修改历史</t>
   </si>
@@ -1787,6 +1787,14 @@
   </si>
   <si>
     <t>显示宠物B名称和稀有度</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2743,6 +2751,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2751,9 +2762,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="138">
@@ -4352,10 +4360,10 @@
     </row>
     <row r="8" spans="1:256" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -5512,8 +5520,8 @@
   <dimension ref="A1:J241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G206" sqref="G206:G207"/>
+      <pane ySplit="2" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G228" sqref="G228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5534,9 +5542,9 @@
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="44"/>
       <c r="C1" s="61"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" s="35" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
@@ -8645,22 +8653,22 @@
       <c r="F206" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="G206" s="69" t="s">
+      <c r="G206" s="66" t="s">
         <v>459</v>
       </c>
       <c r="H206" s="64" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F207" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="G207" s="69" t="s">
+      <c r="G207" s="66" t="s">
         <v>460</v>
       </c>
       <c r="H207" s="64" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.35">
@@ -8976,7 +8984,7 @@
       <c r="E231" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="G231" s="69" t="s">
+      <c r="G231" s="66" t="s">
         <v>458</v>
       </c>
       <c r="H231" s="48" t="s">
@@ -9430,9 +9438,9 @@
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="44"/>
       <c r="C1" s="61"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" s="35" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
